--- a/Unit Test/Unit Test Specification.xlsx
+++ b/Unit Test/Unit Test Specification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5820"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="187">
   <si>
     <t>Test Case Details</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>3. Test Case Specifications for "validateCardNumberTest"</t>
-  </si>
-  <si>
-    <t>Test the method validateCardNumber in the PaymentScreenController</t>
   </si>
   <si>
     <t>Review method validateCardNumber</t>
@@ -253,9 +250,6 @@
     <t>4. Test Case Specifications for "validateCardOwnerTest"</t>
   </si>
   <si>
-    <t>Test the method validateCardOwner in the PaymentScreenController</t>
-  </si>
-  <si>
     <t>Review method validateCardOwner</t>
   </si>
   <si>
@@ -305,9 +299,6 @@
     <t>5. Test Case Specifications for "validateSecurityCodeTest"</t>
   </si>
   <si>
-    <t>Test the method validateSecurityCode in the PaymentScreenController</t>
-  </si>
-  <si>
     <t>Review method validateSecurityCode</t>
   </si>
   <si>
@@ -371,9 +362,6 @@
     <t>5.4 Test Case 15</t>
   </si>
   <si>
-    <t>Test the method validateExpDate in the PaymentScreenController</t>
-  </si>
-  <si>
     <t>Review method validateExpDate</t>
   </si>
   <si>
@@ -449,12 +437,6 @@
     <t>TC021</t>
   </si>
   <si>
-    <t>Test the method calculateReturnedTest in the InvoiceScreenController</t>
-  </si>
-  <si>
-    <t>Review method calculateReturnedTest</t>
-  </si>
-  <si>
     <t>Deposit 100000, total charge 20000</t>
   </si>
   <si>
@@ -480,6 +462,126 @@
   </si>
   <si>
     <t>totalCharge</t>
+  </si>
+  <si>
+    <t>8.1 Test Case 22</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>8. Test Case Specifications for "refundTest"</t>
+  </si>
+  <si>
+    <t>Fill card information in the field</t>
+  </si>
+  <si>
+    <t>Can input card information and display</t>
+  </si>
+  <si>
+    <t>Click Confirm button</t>
+  </si>
+  <si>
+    <t>Payment successful popup appears</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>contents</t>
+  </si>
+  <si>
+    <t>cardHolderName</t>
+  </si>
+  <si>
+    <t>expirationDate</t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>Valid card to return</t>
+  </si>
+  <si>
+    <t>Invalid card popup appears</t>
+  </si>
+  <si>
+    <t>8.2 Test Case 23</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>Invalid card to return</t>
+  </si>
+  <si>
+    <t>Test the method validateCardNumber in the CardFormController</t>
+  </si>
+  <si>
+    <t>Test the method validateCardOwner in the CardFormController</t>
+  </si>
+  <si>
+    <t>Test the method validateSecurityCode in the CardFormController</t>
+  </si>
+  <si>
+    <t>Test the method validateExpDate in the CardFormController</t>
+  </si>
+  <si>
+    <t>8. Test Case Specifications for "calculateCurrentRentingFeesTest"</t>
+  </si>
+  <si>
+    <t>Test the method refund in the InvoiceScreenController</t>
+  </si>
+  <si>
+    <t>Test the method calculateReturned in the InvoiceScreenController</t>
+  </si>
+  <si>
+    <t>Review method calculateReturned</t>
+  </si>
+  <si>
+    <t>Review method refund</t>
+  </si>
+  <si>
+    <t>9.1 Test Case 24</t>
+  </si>
+  <si>
+    <t>TC024</t>
+  </si>
+  <si>
+    <t>Test the method calculateCurrentRentingFees in the SessionScreenController</t>
+  </si>
+  <si>
+    <t>Review method calculateCurrentRentingFees</t>
+  </si>
+  <si>
+    <t>bike</t>
+  </si>
+  <si>
+    <t>sessionLength</t>
+  </si>
+  <si>
+    <t>fee</t>
+  </si>
+  <si>
+    <t>StandardBike</t>
+  </si>
+  <si>
+    <t>StandardElectricalBike</t>
+  </si>
+  <si>
+    <t>TwinElectricalBike</t>
+  </si>
+  <si>
+    <t>Go to the Invoice Screen</t>
+  </si>
+  <si>
+    <t>Return Bike screen is displayed</t>
+  </si>
+  <si>
+    <t>See the total fees</t>
+  </si>
+  <si>
+    <t>Total fees display with value as expected</t>
   </si>
 </sst>
 </file>
@@ -584,7 +686,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -868,12 +970,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
@@ -936,24 +1047,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -963,8 +1068,38 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -991,14 +1126,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1009,54 +1154,62 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1345,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H596"/>
+  <dimension ref="B2:H689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A568" workbookViewId="0">
-      <selection activeCell="B598" sqref="B598"/>
+    <sheetView tabSelected="1" topLeftCell="A668" workbookViewId="0">
+      <selection activeCell="I693" sqref="I693"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1364,34 +1517,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="45" x14ac:dyDescent="0.75">
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="4" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="66"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
+      <c r="B6" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
@@ -1403,11 +1556,11 @@
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -1429,13 +1582,13 @@
       <c r="B11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
@@ -1457,25 +1610,25 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="8">
         <v>1</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
@@ -1489,41 +1642,41 @@
       <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="47" t="s">
+      <c r="D18" s="52"/>
+      <c r="E18" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="46"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30">
+      <c r="D19" s="58"/>
+      <c r="E19" s="71">
         <v>1224452236</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="29"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="58"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
+      <c r="C21" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="13" t="s">
@@ -1538,10 +1691,10 @@
       <c r="E23" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="34"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1549,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>29</v>
@@ -1557,10 +1710,10 @@
       <c r="E24" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="36"/>
+      <c r="F24" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="32"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1576,10 +1729,10 @@
       <c r="E25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="36"/>
+      <c r="F25" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="18">
@@ -1594,20 +1747,20 @@
       <c r="E26" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="36"/>
+      <c r="F26" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="32"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
@@ -1619,11 +1772,11 @@
       <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
@@ -1645,13 +1798,13 @@
       <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="s">
@@ -1673,25 +1826,25 @@
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="41"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="47"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="8">
         <v>1</v>
       </c>
-      <c r="C39" s="42" t="s">
+      <c r="C39" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="50"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
@@ -1705,41 +1858,41 @@
       <c r="B41" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="47" t="s">
+      <c r="D41" s="52"/>
+      <c r="E41" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="48"/>
-      <c r="G41" s="46"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <v>1</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30" t="s">
+      <c r="D42" s="58"/>
+      <c r="E42" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="29"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="58"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
-      <c r="G44" s="33"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="13" t="s">
@@ -1754,17 +1907,17 @@
       <c r="E46" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G46" s="34"/>
+      <c r="G46" s="30"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>1</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="16" t="s">
         <v>29</v>
@@ -1772,10 +1925,10 @@
       <c r="E47" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="36"/>
+      <c r="F47" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="18">
@@ -1790,10 +1943,10 @@
       <c r="E48" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G48" s="36"/>
+      <c r="F48" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="18">
@@ -1808,20 +1961,20 @@
       <c r="E49" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="36"/>
+      <c r="F49" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G49" s="32"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="49" t="s">
+      <c r="B52" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="69"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
@@ -1833,11 +1986,11 @@
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="73"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
@@ -1859,13 +2012,13 @@
       <c r="B57" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="38" t="s">
+      <c r="C57" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="19" t="s">
@@ -1887,25 +2040,25 @@
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="39" t="s">
+      <c r="C61" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="41"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="47"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="8">
         <v>1</v>
       </c>
-      <c r="C62" s="42" t="s">
+      <c r="C62" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="44"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="50"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
@@ -1919,41 +2072,41 @@
       <c r="B64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C64" s="45" t="s">
+      <c r="C64" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="46"/>
-      <c r="E64" s="47" t="s">
+      <c r="D64" s="52"/>
+      <c r="E64" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="48"/>
-      <c r="G64" s="46"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="10">
         <v>1</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D65" s="29"/>
-      <c r="E65" s="30" t="s">
+      <c r="D65" s="58"/>
+      <c r="E65" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="29"/>
+      <c r="F65" s="72"/>
+      <c r="G65" s="58"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
-      <c r="G67" s="33"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
@@ -1968,17 +2121,17 @@
       <c r="E69" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F69" s="34" t="s">
+      <c r="F69" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G69" s="34"/>
+      <c r="G69" s="30"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="17">
         <v>1</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="16" t="s">
         <v>29</v>
@@ -1986,10 +2139,10 @@
       <c r="E70" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F70" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G70" s="36"/>
+      <c r="F70" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="32"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="18">
@@ -2004,10 +2157,10 @@
       <c r="E71" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G71" s="36"/>
+      <c r="F71" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G71" s="32"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="18">
@@ -2022,30 +2175,30 @@
       <c r="E72" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G72" s="36"/>
+      <c r="F72" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" s="32"/>
     </row>
     <row r="75" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B75" s="52" t="s">
+      <c r="B75" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C75" s="53"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="53"/>
-      <c r="G75" s="54"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="66"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="49" t="s">
+      <c r="B77" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C77" s="50"/>
-      <c r="D77" s="50"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
+      <c r="C77" s="68"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="68"/>
+      <c r="F77" s="68"/>
+      <c r="G77" s="69"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
@@ -2057,11 +2210,11 @@
       <c r="D79" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="37" t="s">
+      <c r="E79" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
+      <c r="F79" s="73"/>
+      <c r="G79" s="73"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
@@ -2083,13 +2236,13 @@
       <c r="B82" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="19" t="s">
@@ -2111,25 +2264,25 @@
       <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="39" t="s">
+      <c r="C86" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="40"/>
-      <c r="E86" s="40"/>
-      <c r="F86" s="40"/>
-      <c r="G86" s="41"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="47"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8">
         <v>1</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="44"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="50"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
@@ -2143,41 +2296,41 @@
       <c r="B89" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C89" s="45" t="s">
+      <c r="C89" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="46"/>
-      <c r="E89" s="47" t="s">
+      <c r="D89" s="52"/>
+      <c r="E89" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="48"/>
-      <c r="G89" s="46"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="52"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="10">
         <v>1</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D90" s="29"/>
-      <c r="E90" s="30">
+      <c r="D90" s="58"/>
+      <c r="E90" s="71">
         <v>467295</v>
       </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="29"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="58"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="56"/>
+      <c r="G92" s="56"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
@@ -2192,17 +2345,17 @@
       <c r="E94" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F94" s="34" t="s">
+      <c r="F94" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G94" s="34"/>
+      <c r="G94" s="30"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="17">
         <v>1</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D95" s="16" t="s">
         <v>29</v>
@@ -2210,10 +2363,10 @@
       <c r="E95" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G95" s="36"/>
+      <c r="F95" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G95" s="32"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="18">
@@ -2228,10 +2381,10 @@
       <c r="E96" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F96" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G96" s="36"/>
+      <c r="F96" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="32"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="18">
@@ -2246,20 +2399,20 @@
       <c r="E97" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F97" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G97" s="36"/>
+      <c r="F97" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="32"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="49" t="s">
+      <c r="B99" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C99" s="50"/>
-      <c r="D99" s="50"/>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="51"/>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="69"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="2" t="s">
@@ -2271,11 +2424,11 @@
       <c r="D101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="37" t="s">
+      <c r="E101" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
+      <c r="F101" s="73"/>
+      <c r="G101" s="73"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="2" t="s">
@@ -2297,13 +2450,13 @@
       <c r="B104" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="38" t="s">
+      <c r="C104" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="19" t="s">
@@ -2325,25 +2478,25 @@
       <c r="B108" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="39" t="s">
+      <c r="C108" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D108" s="40"/>
-      <c r="E108" s="40"/>
-      <c r="F108" s="40"/>
-      <c r="G108" s="41"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="47"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="8">
         <v>1</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="43"/>
-      <c r="E109" s="43"/>
-      <c r="F109" s="43"/>
-      <c r="G109" s="44"/>
+      <c r="D109" s="49"/>
+      <c r="E109" s="49"/>
+      <c r="F109" s="49"/>
+      <c r="G109" s="50"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="5"/>
@@ -2357,41 +2510,41 @@
       <c r="B111" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C111" s="45" t="s">
+      <c r="C111" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="46"/>
-      <c r="E111" s="47" t="s">
+      <c r="D111" s="52"/>
+      <c r="E111" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F111" s="48"/>
-      <c r="G111" s="46"/>
+      <c r="F111" s="54"/>
+      <c r="G111" s="52"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="10">
         <v>1</v>
       </c>
-      <c r="C112" s="28" t="s">
+      <c r="C112" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D112" s="29"/>
-      <c r="E112" s="30">
+      <c r="D112" s="58"/>
+      <c r="E112" s="71">
         <v>25121</v>
       </c>
-      <c r="F112" s="31"/>
-      <c r="G112" s="29"/>
+      <c r="F112" s="72"/>
+      <c r="G112" s="58"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C114" s="32" t="s">
+      <c r="C114" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
+      <c r="D114" s="56"/>
+      <c r="E114" s="56"/>
+      <c r="F114" s="56"/>
+      <c r="G114" s="56"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="13" t="s">
@@ -2406,17 +2559,17 @@
       <c r="E116" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="34"/>
+      <c r="G116" s="30"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="17">
         <v>1</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>29</v>
@@ -2424,10 +2577,10 @@
       <c r="E117" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F117" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G117" s="36"/>
+      <c r="F117" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G117" s="32"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="18">
@@ -2442,10 +2595,10 @@
       <c r="E118" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F118" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G118" s="36"/>
+      <c r="F118" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G118" s="32"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="18">
@@ -2460,30 +2613,30 @@
       <c r="E119" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F119" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G119" s="36"/>
+      <c r="F119" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G119" s="32"/>
     </row>
     <row r="122" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="53"/>
-      <c r="D122" s="53"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="54"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="66"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B124" s="49" t="s">
+      <c r="B124" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="C124" s="50"/>
-      <c r="D124" s="50"/>
-      <c r="E124" s="50"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="51"/>
+      <c r="C124" s="68"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="68"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="69"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="2" t="s">
@@ -2495,11 +2648,11 @@
       <c r="D126" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
+      <c r="E126" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F126" s="73"/>
+      <c r="G126" s="73"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="2" t="s">
@@ -2521,13 +2674,13 @@
       <c r="B129" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C129" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
+      <c r="C129" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
     </row>
     <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="19" t="s">
@@ -2549,25 +2702,25 @@
       <c r="B133" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C133" s="39" t="s">
+      <c r="C133" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="40"/>
-      <c r="E133" s="40"/>
-      <c r="F133" s="40"/>
-      <c r="G133" s="41"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="47"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="8">
         <v>1</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C134" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="43"/>
-      <c r="E134" s="43"/>
-      <c r="F134" s="43"/>
-      <c r="G134" s="44"/>
+      <c r="D134" s="49"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="50"/>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="5"/>
@@ -2581,41 +2734,41 @@
       <c r="B136" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C136" s="45" t="s">
+      <c r="C136" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D136" s="46"/>
-      <c r="E136" s="47" t="s">
+      <c r="D136" s="52"/>
+      <c r="E136" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F136" s="48"/>
-      <c r="G136" s="46"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="52"/>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="10">
         <v>1</v>
       </c>
-      <c r="C137" s="28" t="s">
+      <c r="C137" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D137" s="29"/>
-      <c r="E137" s="30" t="s">
+      <c r="D137" s="58"/>
+      <c r="E137" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F137" s="31"/>
-      <c r="G137" s="29"/>
+      <c r="F137" s="72"/>
+      <c r="G137" s="58"/>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C139" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="33"/>
-      <c r="G139" s="33"/>
+      <c r="C139" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D139" s="56"/>
+      <c r="E139" s="56"/>
+      <c r="F139" s="56"/>
+      <c r="G139" s="56"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="13" t="s">
@@ -2630,46 +2783,46 @@
       <c r="E141" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F141" s="34" t="s">
+      <c r="F141" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G141" s="34"/>
+      <c r="G141" s="30"/>
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="17">
         <v>1</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E142" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F142" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G142" s="36"/>
+      <c r="F142" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G142" s="32"/>
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="18">
         <v>2</v>
       </c>
       <c r="C143" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E143" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F143" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G143" s="36"/>
+      <c r="F143" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G143" s="32"/>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="18">
@@ -2679,41 +2832,41 @@
         <v>28</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E144" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F144" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G144" s="36"/>
+      <c r="F144" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G144" s="32"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B147" s="49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="50"/>
-      <c r="F147" s="50"/>
-      <c r="G147" s="51"/>
+      <c r="B147" s="67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C147" s="68"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="68"/>
+      <c r="F147" s="68"/>
+      <c r="G147" s="69"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
+      <c r="E149" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F149" s="73"/>
+      <c r="G149" s="73"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="2" t="s">
@@ -2735,13 +2888,13 @@
       <c r="B152" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C152" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="38"/>
-      <c r="E152" s="38"/>
-      <c r="F152" s="38"/>
-      <c r="G152" s="38"/>
+      <c r="C152" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="44"/>
+      <c r="E152" s="44"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="44"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="19" t="s">
@@ -2763,25 +2916,25 @@
       <c r="B156" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C156" s="39" t="s">
+      <c r="C156" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D156" s="40"/>
-      <c r="E156" s="40"/>
-      <c r="F156" s="40"/>
-      <c r="G156" s="41"/>
+      <c r="D156" s="46"/>
+      <c r="E156" s="46"/>
+      <c r="F156" s="46"/>
+      <c r="G156" s="47"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="8">
         <v>1</v>
       </c>
-      <c r="C157" s="42" t="s">
+      <c r="C157" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D157" s="43"/>
-      <c r="E157" s="43"/>
-      <c r="F157" s="43"/>
-      <c r="G157" s="44"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="50"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="5"/>
@@ -2795,41 +2948,41 @@
       <c r="B159" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C159" s="45" t="s">
+      <c r="C159" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D159" s="46"/>
-      <c r="E159" s="47" t="s">
+      <c r="D159" s="52"/>
+      <c r="E159" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F159" s="48"/>
-      <c r="G159" s="46"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="52"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="10">
         <v>1</v>
       </c>
-      <c r="C160" s="28" t="s">
+      <c r="C160" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D160" s="29"/>
-      <c r="E160" s="30" t="s">
+      <c r="D160" s="58"/>
+      <c r="E160" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F160" s="31"/>
-      <c r="G160" s="29"/>
+      <c r="F160" s="72"/>
+      <c r="G160" s="58"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="33"/>
-      <c r="G162" s="33"/>
+      <c r="C162" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D162" s="56"/>
+      <c r="E162" s="56"/>
+      <c r="F162" s="56"/>
+      <c r="G162" s="56"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="13" t="s">
@@ -2844,46 +2997,46 @@
       <c r="E164" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F164" s="34" t="s">
+      <c r="F164" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G164" s="34"/>
+      <c r="G164" s="30"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="17">
         <v>1</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E165" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F165" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G165" s="36"/>
+      <c r="F165" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G165" s="32"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="18">
         <v>2</v>
       </c>
       <c r="C166" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E166" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F166" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G166" s="36"/>
+      <c r="F166" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G166" s="32"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="18">
@@ -2893,41 +3046,41 @@
         <v>28</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E167" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F167" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G167" s="36"/>
+      <c r="F167" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G167" s="32"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B170" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="51"/>
+      <c r="B170" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="68"/>
+      <c r="F170" s="68"/>
+      <c r="G170" s="69"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E172" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="F172" s="37"/>
-      <c r="G172" s="37"/>
+      <c r="E172" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F172" s="73"/>
+      <c r="G172" s="73"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="2" t="s">
@@ -2949,13 +3102,13 @@
       <c r="B175" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C175" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D175" s="38"/>
-      <c r="E175" s="38"/>
-      <c r="F175" s="38"/>
-      <c r="G175" s="38"/>
+      <c r="C175" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D175" s="44"/>
+      <c r="E175" s="44"/>
+      <c r="F175" s="44"/>
+      <c r="G175" s="44"/>
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="19" t="s">
@@ -2977,25 +3130,25 @@
       <c r="B179" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C179" s="39" t="s">
+      <c r="C179" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D179" s="40"/>
-      <c r="E179" s="40"/>
-      <c r="F179" s="40"/>
-      <c r="G179" s="41"/>
+      <c r="D179" s="46"/>
+      <c r="E179" s="46"/>
+      <c r="F179" s="46"/>
+      <c r="G179" s="47"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="8">
         <v>1</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C180" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D180" s="43"/>
-      <c r="E180" s="43"/>
-      <c r="F180" s="43"/>
-      <c r="G180" s="44"/>
+      <c r="D180" s="49"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="50"/>
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="5"/>
@@ -3009,41 +3162,41 @@
       <c r="B182" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="45" t="s">
+      <c r="C182" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D182" s="46"/>
-      <c r="E182" s="47" t="s">
+      <c r="D182" s="52"/>
+      <c r="E182" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F182" s="48"/>
-      <c r="G182" s="46"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="52"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="10">
         <v>1</v>
       </c>
-      <c r="C183" s="28" t="s">
+      <c r="C183" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D183" s="29"/>
-      <c r="E183" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="F183" s="31"/>
-      <c r="G183" s="29"/>
+      <c r="D183" s="58"/>
+      <c r="E183" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="F183" s="72"/>
+      <c r="G183" s="58"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C185" s="32" t="s">
+      <c r="C185" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="33"/>
-      <c r="G185" s="33"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="56"/>
+      <c r="F185" s="56"/>
+      <c r="G185" s="56"/>
     </row>
     <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="13" t="s">
@@ -3058,46 +3211,46 @@
       <c r="E187" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F187" s="34" t="s">
+      <c r="F187" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G187" s="34"/>
+      <c r="G187" s="30"/>
     </row>
     <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="17">
         <v>1</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D188" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E188" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F188" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G188" s="36"/>
+      <c r="F188" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G188" s="32"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="18">
         <v>2</v>
       </c>
       <c r="C189" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E189" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F189" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G189" s="36"/>
+      <c r="F189" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G189" s="32"/>
     </row>
     <row r="190" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B190" s="22">
@@ -3107,51 +3260,51 @@
         <v>28</v>
       </c>
       <c r="D190" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E190" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F190" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G190" s="27"/>
+      <c r="F190" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G190" s="63"/>
     </row>
     <row r="193" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B193" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="C193" s="53"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="54"/>
+      <c r="B193" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C193" s="65"/>
+      <c r="D193" s="65"/>
+      <c r="E193" s="65"/>
+      <c r="F193" s="65"/>
+      <c r="G193" s="66"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B195" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C195" s="50"/>
-      <c r="D195" s="50"/>
-      <c r="E195" s="50"/>
-      <c r="F195" s="50"/>
-      <c r="G195" s="51"/>
+      <c r="B195" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C195" s="68"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="68"/>
+      <c r="F195" s="68"/>
+      <c r="G195" s="69"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E197" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F197" s="37"/>
-      <c r="G197" s="37"/>
+      <c r="E197" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F197" s="73"/>
+      <c r="G197" s="73"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="2" t="s">
@@ -3173,13 +3326,13 @@
       <c r="B200" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C200" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D200" s="38"/>
-      <c r="E200" s="38"/>
-      <c r="F200" s="38"/>
-      <c r="G200" s="38"/>
+      <c r="C200" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D200" s="44"/>
+      <c r="E200" s="44"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="44"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="19" t="s">
@@ -3201,25 +3354,25 @@
       <c r="B204" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="39" t="s">
+      <c r="C204" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D204" s="40"/>
-      <c r="E204" s="40"/>
-      <c r="F204" s="40"/>
-      <c r="G204" s="41"/>
+      <c r="D204" s="46"/>
+      <c r="E204" s="46"/>
+      <c r="F204" s="46"/>
+      <c r="G204" s="47"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="8">
         <v>1</v>
       </c>
-      <c r="C205" s="42" t="s">
+      <c r="C205" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D205" s="43"/>
-      <c r="E205" s="43"/>
-      <c r="F205" s="43"/>
-      <c r="G205" s="44"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="50"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="5"/>
@@ -3233,41 +3386,41 @@
       <c r="B207" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C207" s="45" t="s">
+      <c r="C207" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D207" s="46"/>
-      <c r="E207" s="47" t="s">
+      <c r="D207" s="52"/>
+      <c r="E207" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F207" s="48"/>
-      <c r="G207" s="46"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="52"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="10">
         <v>1</v>
       </c>
-      <c r="C208" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D208" s="29"/>
-      <c r="E208" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="F208" s="31"/>
-      <c r="G208" s="29"/>
+      <c r="C208" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D208" s="58"/>
+      <c r="E208" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="F208" s="72"/>
+      <c r="G208" s="58"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C210" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D210" s="33"/>
-      <c r="E210" s="33"/>
-      <c r="F210" s="33"/>
-      <c r="G210" s="33"/>
+      <c r="C210" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D210" s="56"/>
+      <c r="E210" s="56"/>
+      <c r="F210" s="56"/>
+      <c r="G210" s="56"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="13" t="s">
@@ -3282,46 +3435,46 @@
       <c r="E212" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F212" s="34" t="s">
+      <c r="F212" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G212" s="34"/>
+      <c r="G212" s="30"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="17">
         <v>1</v>
       </c>
       <c r="C213" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D213" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E213" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F213" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G213" s="36"/>
+      <c r="F213" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G213" s="32"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="18">
         <v>2</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E214" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F214" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G214" s="36"/>
+      <c r="F214" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G214" s="32"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="18">
@@ -3331,41 +3484,41 @@
         <v>28</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E215" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F215" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G215" s="36"/>
+      <c r="F215" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" s="32"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B218" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C218" s="50"/>
-      <c r="D218" s="50"/>
-      <c r="E218" s="50"/>
-      <c r="F218" s="50"/>
-      <c r="G218" s="51"/>
+      <c r="B218" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C218" s="68"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="68"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="69"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E220" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F220" s="37"/>
-      <c r="G220" s="37"/>
+      <c r="E220" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F220" s="73"/>
+      <c r="G220" s="73"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="2" t="s">
@@ -3387,13 +3540,13 @@
       <c r="B223" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C223" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D223" s="38"/>
-      <c r="E223" s="38"/>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
+      <c r="C223" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D223" s="44"/>
+      <c r="E223" s="44"/>
+      <c r="F223" s="44"/>
+      <c r="G223" s="44"/>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="19" t="s">
@@ -3415,25 +3568,25 @@
       <c r="B227" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C227" s="39" t="s">
+      <c r="C227" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D227" s="40"/>
-      <c r="E227" s="40"/>
-      <c r="F227" s="40"/>
-      <c r="G227" s="41"/>
+      <c r="D227" s="46"/>
+      <c r="E227" s="46"/>
+      <c r="F227" s="46"/>
+      <c r="G227" s="47"/>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="8">
         <v>1</v>
       </c>
-      <c r="C228" s="42" t="s">
+      <c r="C228" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D228" s="43"/>
-      <c r="E228" s="43"/>
-      <c r="F228" s="43"/>
-      <c r="G228" s="44"/>
+      <c r="D228" s="49"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="49"/>
+      <c r="G228" s="50"/>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="5"/>
@@ -3447,41 +3600,41 @@
       <c r="B230" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="45" t="s">
+      <c r="C230" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D230" s="46"/>
-      <c r="E230" s="47" t="s">
+      <c r="D230" s="52"/>
+      <c r="E230" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F230" s="48"/>
-      <c r="G230" s="46"/>
+      <c r="F230" s="54"/>
+      <c r="G230" s="52"/>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="10">
         <v>1</v>
       </c>
-      <c r="C231" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D231" s="29"/>
-      <c r="E231" s="30" t="s">
+      <c r="C231" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D231" s="58"/>
+      <c r="E231" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F231" s="31"/>
-      <c r="G231" s="29"/>
+      <c r="F231" s="72"/>
+      <c r="G231" s="58"/>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C233" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D233" s="33"/>
-      <c r="E233" s="33"/>
-      <c r="F233" s="33"/>
-      <c r="G233" s="33"/>
+      <c r="C233" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D233" s="56"/>
+      <c r="E233" s="56"/>
+      <c r="F233" s="56"/>
+      <c r="G233" s="56"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="13" t="s">
@@ -3496,46 +3649,46 @@
       <c r="E235" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F235" s="34" t="s">
+      <c r="F235" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G235" s="34"/>
+      <c r="G235" s="30"/>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="17">
         <v>1</v>
       </c>
       <c r="C236" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D236" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E236" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F236" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G236" s="36"/>
+      <c r="F236" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G236" s="32"/>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="18">
         <v>2</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E237" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F237" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G237" s="36"/>
+      <c r="F237" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G237" s="32"/>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="18">
@@ -3545,41 +3698,41 @@
         <v>28</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E238" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F238" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G238" s="36"/>
+      <c r="F238" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G238" s="32"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B241" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="C241" s="50"/>
-      <c r="D241" s="50"/>
-      <c r="E241" s="50"/>
-      <c r="F241" s="50"/>
-      <c r="G241" s="51"/>
+      <c r="B241" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C241" s="68"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="68"/>
+      <c r="F241" s="68"/>
+      <c r="G241" s="69"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E243" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="F243" s="37"/>
-      <c r="G243" s="37"/>
+      <c r="E243" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F243" s="73"/>
+      <c r="G243" s="73"/>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="2" t="s">
@@ -3601,13 +3754,13 @@
       <c r="B246" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C246" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D246" s="38"/>
-      <c r="E246" s="38"/>
-      <c r="F246" s="38"/>
-      <c r="G246" s="38"/>
+      <c r="C246" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="D246" s="44"/>
+      <c r="E246" s="44"/>
+      <c r="F246" s="44"/>
+      <c r="G246" s="44"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="19" t="s">
@@ -3629,25 +3782,25 @@
       <c r="B250" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C250" s="39" t="s">
+      <c r="C250" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D250" s="40"/>
-      <c r="E250" s="40"/>
-      <c r="F250" s="40"/>
-      <c r="G250" s="41"/>
+      <c r="D250" s="46"/>
+      <c r="E250" s="46"/>
+      <c r="F250" s="46"/>
+      <c r="G250" s="47"/>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="8">
         <v>1</v>
       </c>
-      <c r="C251" s="42" t="s">
+      <c r="C251" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D251" s="43"/>
-      <c r="E251" s="43"/>
-      <c r="F251" s="43"/>
-      <c r="G251" s="44"/>
+      <c r="D251" s="49"/>
+      <c r="E251" s="49"/>
+      <c r="F251" s="49"/>
+      <c r="G251" s="50"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="5"/>
@@ -3661,41 +3814,41 @@
       <c r="B253" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C253" s="45" t="s">
+      <c r="C253" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D253" s="46"/>
-      <c r="E253" s="47" t="s">
+      <c r="D253" s="52"/>
+      <c r="E253" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F253" s="48"/>
-      <c r="G253" s="46"/>
+      <c r="F253" s="54"/>
+      <c r="G253" s="52"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="10">
         <v>1</v>
       </c>
-      <c r="C254" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D254" s="29"/>
-      <c r="E254" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="F254" s="31"/>
-      <c r="G254" s="29"/>
+      <c r="C254" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D254" s="58"/>
+      <c r="E254" s="71" t="s">
+        <v>89</v>
+      </c>
+      <c r="F254" s="72"/>
+      <c r="G254" s="58"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D256" s="33"/>
-      <c r="E256" s="33"/>
-      <c r="F256" s="33"/>
-      <c r="G256" s="33"/>
+      <c r="D256" s="56"/>
+      <c r="E256" s="56"/>
+      <c r="F256" s="56"/>
+      <c r="G256" s="56"/>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="13" t="s">
@@ -3710,46 +3863,46 @@
       <c r="E258" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F258" s="34" t="s">
+      <c r="F258" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G258" s="34"/>
+      <c r="G258" s="30"/>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="17">
         <v>1</v>
       </c>
       <c r="C259" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D259" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E259" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F259" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G259" s="36"/>
+      <c r="F259" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G259" s="32"/>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="18">
         <v>2</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E260" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F260" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G260" s="36"/>
+      <c r="F260" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G260" s="32"/>
     </row>
     <row r="261" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B261" s="22">
@@ -3759,51 +3912,51 @@
         <v>28</v>
       </c>
       <c r="D261" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E261" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F261" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G261" s="27"/>
+      <c r="F261" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G261" s="63"/>
     </row>
     <row r="264" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B264" s="52" t="s">
+      <c r="B264" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C264" s="65"/>
+      <c r="D264" s="65"/>
+      <c r="E264" s="65"/>
+      <c r="F264" s="65"/>
+      <c r="G264" s="66"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C264" s="53"/>
-      <c r="D264" s="53"/>
-      <c r="E264" s="53"/>
-      <c r="F264" s="53"/>
-      <c r="G264" s="54"/>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B266" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C266" s="50"/>
-      <c r="D266" s="50"/>
-      <c r="E266" s="50"/>
-      <c r="F266" s="50"/>
-      <c r="G266" s="51"/>
+      <c r="C266" s="68"/>
+      <c r="D266" s="68"/>
+      <c r="E266" s="68"/>
+      <c r="F266" s="68"/>
+      <c r="G266" s="69"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F268" s="37"/>
-      <c r="G268" s="37"/>
+      <c r="E268" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F268" s="73"/>
+      <c r="G268" s="73"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="2" t="s">
@@ -3825,13 +3978,13 @@
       <c r="B271" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C271" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D271" s="38"/>
-      <c r="E271" s="38"/>
-      <c r="F271" s="38"/>
-      <c r="G271" s="38"/>
+      <c r="C271" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+      <c r="F271" s="44"/>
+      <c r="G271" s="44"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="19" t="s">
@@ -3853,25 +4006,25 @@
       <c r="B275" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C275" s="39" t="s">
+      <c r="C275" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D275" s="40"/>
-      <c r="E275" s="40"/>
-      <c r="F275" s="40"/>
-      <c r="G275" s="41"/>
+      <c r="D275" s="46"/>
+      <c r="E275" s="46"/>
+      <c r="F275" s="46"/>
+      <c r="G275" s="47"/>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="8">
         <v>1</v>
       </c>
-      <c r="C276" s="42" t="s">
+      <c r="C276" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D276" s="43"/>
-      <c r="E276" s="43"/>
-      <c r="F276" s="43"/>
-      <c r="G276" s="44"/>
+      <c r="D276" s="49"/>
+      <c r="E276" s="49"/>
+      <c r="F276" s="49"/>
+      <c r="G276" s="50"/>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="5"/>
@@ -3885,41 +4038,41 @@
       <c r="B278" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="45" t="s">
+      <c r="C278" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D278" s="46"/>
-      <c r="E278" s="47" t="s">
+      <c r="D278" s="52"/>
+      <c r="E278" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F278" s="48"/>
-      <c r="G278" s="46"/>
+      <c r="F278" s="54"/>
+      <c r="G278" s="52"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="10">
         <v>1</v>
       </c>
-      <c r="C279" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D279" s="29"/>
-      <c r="E279" s="30">
+      <c r="C279" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D279" s="58"/>
+      <c r="E279" s="71">
         <v>721</v>
       </c>
-      <c r="F279" s="31"/>
-      <c r="G279" s="29"/>
+      <c r="F279" s="72"/>
+      <c r="G279" s="58"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C281" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D281" s="33"/>
-      <c r="E281" s="33"/>
-      <c r="F281" s="33"/>
-      <c r="G281" s="33"/>
+      <c r="C281" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D281" s="56"/>
+      <c r="E281" s="56"/>
+      <c r="F281" s="56"/>
+      <c r="G281" s="56"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="15" t="s">
@@ -3934,46 +4087,46 @@
       <c r="E283" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F283" s="34" t="s">
+      <c r="F283" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G283" s="34"/>
+      <c r="G283" s="30"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="17">
         <v>1</v>
       </c>
       <c r="C284" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D284" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E284" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F284" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G284" s="36"/>
+      <c r="F284" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G284" s="32"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="18">
         <v>2</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E285" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F285" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G285" s="36"/>
+      <c r="F285" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G285" s="32"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="18">
@@ -3983,41 +4136,41 @@
         <v>28</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E286" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F286" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G286" s="36"/>
+      <c r="F286" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G286" s="32"/>
     </row>
     <row r="289" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B289" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C289" s="50"/>
-      <c r="D289" s="50"/>
-      <c r="E289" s="50"/>
-      <c r="F289" s="50"/>
-      <c r="G289" s="51"/>
+      <c r="B289" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C289" s="68"/>
+      <c r="D289" s="68"/>
+      <c r="E289" s="68"/>
+      <c r="F289" s="68"/>
+      <c r="G289" s="69"/>
     </row>
     <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E291" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F291" s="37"/>
-      <c r="G291" s="37"/>
+      <c r="E291" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F291" s="73"/>
+      <c r="G291" s="73"/>
     </row>
     <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="2" t="s">
@@ -4039,13 +4192,13 @@
       <c r="B294" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C294" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D294" s="38"/>
-      <c r="E294" s="38"/>
-      <c r="F294" s="38"/>
-      <c r="G294" s="38"/>
+      <c r="C294" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D294" s="44"/>
+      <c r="E294" s="44"/>
+      <c r="F294" s="44"/>
+      <c r="G294" s="44"/>
     </row>
     <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="19" t="s">
@@ -4067,25 +4220,25 @@
       <c r="B298" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C298" s="39" t="s">
+      <c r="C298" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D298" s="40"/>
-      <c r="E298" s="40"/>
-      <c r="F298" s="40"/>
-      <c r="G298" s="41"/>
+      <c r="D298" s="46"/>
+      <c r="E298" s="46"/>
+      <c r="F298" s="46"/>
+      <c r="G298" s="47"/>
     </row>
     <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="8">
         <v>1</v>
       </c>
-      <c r="C299" s="42" t="s">
+      <c r="C299" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D299" s="43"/>
-      <c r="E299" s="43"/>
-      <c r="F299" s="43"/>
-      <c r="G299" s="44"/>
+      <c r="D299" s="49"/>
+      <c r="E299" s="49"/>
+      <c r="F299" s="49"/>
+      <c r="G299" s="50"/>
     </row>
     <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="5"/>
@@ -4099,41 +4252,41 @@
       <c r="B301" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C301" s="45" t="s">
+      <c r="C301" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D301" s="46"/>
-      <c r="E301" s="47" t="s">
+      <c r="D301" s="52"/>
+      <c r="E301" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F301" s="48"/>
-      <c r="G301" s="46"/>
+      <c r="F301" s="54"/>
+      <c r="G301" s="52"/>
     </row>
     <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="10">
         <v>1</v>
       </c>
-      <c r="C302" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D302" s="29"/>
-      <c r="E302" s="30" t="s">
+      <c r="C302" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="58"/>
+      <c r="E302" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F302" s="31"/>
-      <c r="G302" s="29"/>
+      <c r="F302" s="72"/>
+      <c r="G302" s="58"/>
     </row>
     <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C304" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D304" s="33"/>
-      <c r="E304" s="33"/>
-      <c r="F304" s="33"/>
-      <c r="G304" s="33"/>
+      <c r="C304" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D304" s="56"/>
+      <c r="E304" s="56"/>
+      <c r="F304" s="56"/>
+      <c r="G304" s="56"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="15" t="s">
@@ -4148,46 +4301,46 @@
       <c r="E306" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F306" s="34" t="s">
+      <c r="F306" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G306" s="34"/>
+      <c r="G306" s="30"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="17">
         <v>1</v>
       </c>
       <c r="C307" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D307" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E307" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F307" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G307" s="36"/>
+      <c r="F307" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G307" s="32"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="18">
         <v>2</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E308" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F308" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G308" s="36"/>
+      <c r="F308" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G308" s="32"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="18">
@@ -4197,41 +4350,41 @@
         <v>28</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E309" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F309" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G309" s="36"/>
+      <c r="F309" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G309" s="32"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B312" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="C312" s="50"/>
-      <c r="D312" s="50"/>
-      <c r="E312" s="50"/>
-      <c r="F312" s="50"/>
-      <c r="G312" s="51"/>
+      <c r="B312" s="67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C312" s="68"/>
+      <c r="D312" s="68"/>
+      <c r="E312" s="68"/>
+      <c r="F312" s="68"/>
+      <c r="G312" s="69"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E314" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F314" s="37"/>
-      <c r="G314" s="37"/>
+      <c r="E314" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F314" s="73"/>
+      <c r="G314" s="73"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="2" t="s">
@@ -4253,13 +4406,13 @@
       <c r="B317" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C317" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D317" s="38"/>
-      <c r="E317" s="38"/>
-      <c r="F317" s="38"/>
-      <c r="G317" s="38"/>
+      <c r="C317" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D317" s="44"/>
+      <c r="E317" s="44"/>
+      <c r="F317" s="44"/>
+      <c r="G317" s="44"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="19" t="s">
@@ -4281,25 +4434,25 @@
       <c r="B321" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C321" s="39" t="s">
+      <c r="C321" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D321" s="40"/>
-      <c r="E321" s="40"/>
-      <c r="F321" s="40"/>
-      <c r="G321" s="41"/>
+      <c r="D321" s="46"/>
+      <c r="E321" s="46"/>
+      <c r="F321" s="46"/>
+      <c r="G321" s="47"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="8">
         <v>1</v>
       </c>
-      <c r="C322" s="42" t="s">
+      <c r="C322" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D322" s="43"/>
-      <c r="E322" s="43"/>
-      <c r="F322" s="43"/>
-      <c r="G322" s="44"/>
+      <c r="D322" s="49"/>
+      <c r="E322" s="49"/>
+      <c r="F322" s="49"/>
+      <c r="G322" s="50"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="5"/>
@@ -4313,41 +4466,41 @@
       <c r="B324" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C324" s="45" t="s">
+      <c r="C324" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D324" s="46"/>
-      <c r="E324" s="47" t="s">
+      <c r="D324" s="52"/>
+      <c r="E324" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F324" s="48"/>
-      <c r="G324" s="46"/>
+      <c r="F324" s="54"/>
+      <c r="G324" s="52"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="10">
         <v>1</v>
       </c>
-      <c r="C325" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D325" s="29"/>
-      <c r="E325" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F325" s="31"/>
-      <c r="G325" s="29"/>
+      <c r="C325" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D325" s="58"/>
+      <c r="E325" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F325" s="72"/>
+      <c r="G325" s="58"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C327" s="32" t="s">
+      <c r="C327" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D327" s="33"/>
-      <c r="E327" s="33"/>
-      <c r="F327" s="33"/>
-      <c r="G327" s="33"/>
+      <c r="D327" s="56"/>
+      <c r="E327" s="56"/>
+      <c r="F327" s="56"/>
+      <c r="G327" s="56"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="15" t="s">
@@ -4362,46 +4515,46 @@
       <c r="E329" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F329" s="34" t="s">
+      <c r="F329" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G329" s="34"/>
+      <c r="G329" s="30"/>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="17">
         <v>1</v>
       </c>
       <c r="C330" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E330" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F330" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G330" s="36"/>
+      <c r="F330" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G330" s="32"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="18">
         <v>2</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E331" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F331" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G331" s="36"/>
+      <c r="F331" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G331" s="32"/>
     </row>
     <row r="332" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B332" s="22">
@@ -4411,41 +4564,41 @@
         <v>28</v>
       </c>
       <c r="D332" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E332" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F332" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G332" s="27"/>
+      <c r="F332" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G332" s="63"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B335" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="C335" s="50"/>
-      <c r="D335" s="50"/>
-      <c r="E335" s="50"/>
-      <c r="F335" s="50"/>
-      <c r="G335" s="51"/>
+      <c r="B335" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C335" s="68"/>
+      <c r="D335" s="68"/>
+      <c r="E335" s="68"/>
+      <c r="F335" s="68"/>
+      <c r="G335" s="69"/>
     </row>
     <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E337" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F337" s="37"/>
-      <c r="G337" s="37"/>
+      <c r="E337" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F337" s="73"/>
+      <c r="G337" s="73"/>
     </row>
     <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="2" t="s">
@@ -4467,13 +4620,13 @@
       <c r="B340" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C340" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D340" s="38"/>
-      <c r="E340" s="38"/>
-      <c r="F340" s="38"/>
-      <c r="G340" s="38"/>
+      <c r="C340" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D340" s="44"/>
+      <c r="E340" s="44"/>
+      <c r="F340" s="44"/>
+      <c r="G340" s="44"/>
     </row>
     <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="19" t="s">
@@ -4495,25 +4648,25 @@
       <c r="B344" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C344" s="39" t="s">
+      <c r="C344" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D344" s="40"/>
-      <c r="E344" s="40"/>
-      <c r="F344" s="40"/>
-      <c r="G344" s="41"/>
+      <c r="D344" s="46"/>
+      <c r="E344" s="46"/>
+      <c r="F344" s="46"/>
+      <c r="G344" s="47"/>
     </row>
     <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="8">
         <v>1</v>
       </c>
-      <c r="C345" s="42" t="s">
+      <c r="C345" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D345" s="43"/>
-      <c r="E345" s="43"/>
-      <c r="F345" s="43"/>
-      <c r="G345" s="44"/>
+      <c r="D345" s="49"/>
+      <c r="E345" s="49"/>
+      <c r="F345" s="49"/>
+      <c r="G345" s="50"/>
     </row>
     <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="5"/>
@@ -4527,41 +4680,41 @@
       <c r="B347" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C347" s="45" t="s">
+      <c r="C347" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D347" s="46"/>
-      <c r="E347" s="47" t="s">
+      <c r="D347" s="52"/>
+      <c r="E347" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F347" s="48"/>
-      <c r="G347" s="46"/>
+      <c r="F347" s="54"/>
+      <c r="G347" s="52"/>
     </row>
     <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="10">
         <v>1</v>
       </c>
-      <c r="C348" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D348" s="29"/>
-      <c r="E348" s="30">
+      <c r="C348" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D348" s="58"/>
+      <c r="E348" s="71">
         <v>2251</v>
       </c>
-      <c r="F348" s="31"/>
-      <c r="G348" s="29"/>
+      <c r="F348" s="72"/>
+      <c r="G348" s="58"/>
     </row>
     <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C350" s="32" t="s">
+      <c r="C350" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D350" s="33"/>
-      <c r="E350" s="33"/>
-      <c r="F350" s="33"/>
-      <c r="G350" s="33"/>
+      <c r="D350" s="56"/>
+      <c r="E350" s="56"/>
+      <c r="F350" s="56"/>
+      <c r="G350" s="56"/>
     </row>
     <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="15" t="s">
@@ -4576,46 +4729,46 @@
       <c r="E352" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F352" s="34" t="s">
+      <c r="F352" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G352" s="34"/>
+      <c r="G352" s="30"/>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="17">
         <v>1</v>
       </c>
       <c r="C353" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D353" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E353" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F353" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G353" s="36"/>
+      <c r="F353" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G353" s="32"/>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="18">
         <v>2</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E354" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F354" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G354" s="36"/>
+      <c r="F354" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G354" s="32"/>
     </row>
     <row r="355" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B355" s="22">
@@ -4625,51 +4778,51 @@
         <v>28</v>
       </c>
       <c r="D355" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E355" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F355" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G355" s="27"/>
+      <c r="F355" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G355" s="63"/>
     </row>
     <row r="358" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B358" s="52" t="s">
+      <c r="B358" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C358" s="65"/>
+      <c r="D358" s="65"/>
+      <c r="E358" s="65"/>
+      <c r="F358" s="65"/>
+      <c r="G358" s="66"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B360" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C358" s="53"/>
-      <c r="D358" s="53"/>
-      <c r="E358" s="53"/>
-      <c r="F358" s="53"/>
-      <c r="G358" s="54"/>
-    </row>
-    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B360" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="C360" s="50"/>
-      <c r="D360" s="50"/>
-      <c r="E360" s="50"/>
-      <c r="F360" s="50"/>
-      <c r="G360" s="51"/>
+      <c r="C360" s="68"/>
+      <c r="D360" s="68"/>
+      <c r="E360" s="68"/>
+      <c r="F360" s="68"/>
+      <c r="G360" s="69"/>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E362" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F362" s="37"/>
-      <c r="G362" s="37"/>
+      <c r="E362" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F362" s="73"/>
+      <c r="G362" s="73"/>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="2" t="s">
@@ -4691,13 +4844,13 @@
       <c r="B365" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C365" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D365" s="38"/>
-      <c r="E365" s="38"/>
-      <c r="F365" s="38"/>
-      <c r="G365" s="38"/>
+      <c r="C365" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D365" s="44"/>
+      <c r="E365" s="44"/>
+      <c r="F365" s="44"/>
+      <c r="G365" s="44"/>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="19" t="s">
@@ -4719,25 +4872,25 @@
       <c r="B369" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C369" s="39" t="s">
+      <c r="C369" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D369" s="40"/>
-      <c r="E369" s="40"/>
-      <c r="F369" s="40"/>
-      <c r="G369" s="41"/>
+      <c r="D369" s="46"/>
+      <c r="E369" s="46"/>
+      <c r="F369" s="46"/>
+      <c r="G369" s="47"/>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="8">
         <v>1</v>
       </c>
-      <c r="C370" s="42" t="s">
+      <c r="C370" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D370" s="43"/>
-      <c r="E370" s="43"/>
-      <c r="F370" s="43"/>
-      <c r="G370" s="44"/>
+      <c r="D370" s="49"/>
+      <c r="E370" s="49"/>
+      <c r="F370" s="49"/>
+      <c r="G370" s="50"/>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="5"/>
@@ -4751,41 +4904,41 @@
       <c r="B372" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C372" s="45" t="s">
+      <c r="C372" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D372" s="46"/>
-      <c r="E372" s="47" t="s">
+      <c r="D372" s="52"/>
+      <c r="E372" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F372" s="48"/>
-      <c r="G372" s="46"/>
+      <c r="F372" s="54"/>
+      <c r="G372" s="52"/>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="10">
         <v>1</v>
       </c>
-      <c r="C373" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D373" s="29"/>
-      <c r="E373" s="30">
+      <c r="C373" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D373" s="58"/>
+      <c r="E373" s="71">
         <v>721</v>
       </c>
-      <c r="F373" s="31"/>
-      <c r="G373" s="29"/>
+      <c r="F373" s="72"/>
+      <c r="G373" s="58"/>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C375" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D375" s="33"/>
-      <c r="E375" s="33"/>
-      <c r="F375" s="33"/>
-      <c r="G375" s="33"/>
+      <c r="C375" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D375" s="56"/>
+      <c r="E375" s="56"/>
+      <c r="F375" s="56"/>
+      <c r="G375" s="56"/>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="15" t="s">
@@ -4800,46 +4953,46 @@
       <c r="E377" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F377" s="34" t="s">
+      <c r="F377" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G377" s="34"/>
+      <c r="G377" s="30"/>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="17">
         <v>1</v>
       </c>
       <c r="C378" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D378" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E378" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F378" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G378" s="36"/>
+      <c r="F378" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G378" s="32"/>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="18">
         <v>2</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E379" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F379" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G379" s="36"/>
+      <c r="F379" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G379" s="32"/>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="18">
@@ -4849,41 +5002,41 @@
         <v>28</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E380" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F380" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G380" s="36"/>
+      <c r="F380" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G380" s="32"/>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B383" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="C383" s="50"/>
-      <c r="D383" s="50"/>
-      <c r="E383" s="50"/>
-      <c r="F383" s="50"/>
-      <c r="G383" s="51"/>
+      <c r="B383" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="C383" s="68"/>
+      <c r="D383" s="68"/>
+      <c r="E383" s="68"/>
+      <c r="F383" s="68"/>
+      <c r="G383" s="69"/>
     </row>
     <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E385" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F385" s="37"/>
-      <c r="G385" s="37"/>
+      <c r="E385" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F385" s="73"/>
+      <c r="G385" s="73"/>
     </row>
     <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="2" t="s">
@@ -4905,13 +5058,13 @@
       <c r="B388" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C388" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D388" s="38"/>
-      <c r="E388" s="38"/>
-      <c r="F388" s="38"/>
-      <c r="G388" s="38"/>
+      <c r="C388" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D388" s="44"/>
+      <c r="E388" s="44"/>
+      <c r="F388" s="44"/>
+      <c r="G388" s="44"/>
     </row>
     <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="19" t="s">
@@ -4933,25 +5086,25 @@
       <c r="B392" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C392" s="39" t="s">
+      <c r="C392" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D392" s="40"/>
-      <c r="E392" s="40"/>
-      <c r="F392" s="40"/>
-      <c r="G392" s="41"/>
+      <c r="D392" s="46"/>
+      <c r="E392" s="46"/>
+      <c r="F392" s="46"/>
+      <c r="G392" s="47"/>
     </row>
     <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="8">
         <v>1</v>
       </c>
-      <c r="C393" s="42" t="s">
+      <c r="C393" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D393" s="43"/>
-      <c r="E393" s="43"/>
-      <c r="F393" s="43"/>
-      <c r="G393" s="44"/>
+      <c r="D393" s="49"/>
+      <c r="E393" s="49"/>
+      <c r="F393" s="49"/>
+      <c r="G393" s="50"/>
     </row>
     <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="5"/>
@@ -4965,41 +5118,41 @@
       <c r="B395" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C395" s="45" t="s">
+      <c r="C395" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D395" s="46"/>
-      <c r="E395" s="47" t="s">
+      <c r="D395" s="52"/>
+      <c r="E395" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F395" s="48"/>
-      <c r="G395" s="46"/>
+      <c r="F395" s="54"/>
+      <c r="G395" s="52"/>
     </row>
     <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="10">
         <v>1</v>
       </c>
-      <c r="C396" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D396" s="29"/>
-      <c r="E396" s="30" t="s">
+      <c r="C396" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D396" s="58"/>
+      <c r="E396" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F396" s="31"/>
-      <c r="G396" s="29"/>
+      <c r="F396" s="72"/>
+      <c r="G396" s="58"/>
     </row>
     <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C398" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D398" s="33"/>
-      <c r="E398" s="33"/>
-      <c r="F398" s="33"/>
-      <c r="G398" s="33"/>
+      <c r="C398" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D398" s="56"/>
+      <c r="E398" s="56"/>
+      <c r="F398" s="56"/>
+      <c r="G398" s="56"/>
     </row>
     <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="15" t="s">
@@ -5014,46 +5167,46 @@
       <c r="E400" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F400" s="34" t="s">
+      <c r="F400" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G400" s="34"/>
+      <c r="G400" s="30"/>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="17">
         <v>1</v>
       </c>
       <c r="C401" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D401" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E401" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F401" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G401" s="36"/>
+      <c r="F401" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G401" s="32"/>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="18">
         <v>2</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E402" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F402" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G402" s="36"/>
+      <c r="F402" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G402" s="32"/>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="18">
@@ -5063,41 +5216,41 @@
         <v>28</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E403" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F403" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G403" s="36"/>
+      <c r="F403" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G403" s="32"/>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B406" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="C406" s="50"/>
-      <c r="D406" s="50"/>
-      <c r="E406" s="50"/>
-      <c r="F406" s="50"/>
-      <c r="G406" s="51"/>
+      <c r="B406" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="C406" s="68"/>
+      <c r="D406" s="68"/>
+      <c r="E406" s="68"/>
+      <c r="F406" s="68"/>
+      <c r="G406" s="69"/>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E408" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F408" s="37"/>
-      <c r="G408" s="37"/>
+      <c r="E408" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F408" s="73"/>
+      <c r="G408" s="73"/>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="2" t="s">
@@ -5119,13 +5272,13 @@
       <c r="B411" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C411" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D411" s="38"/>
-      <c r="E411" s="38"/>
-      <c r="F411" s="38"/>
-      <c r="G411" s="38"/>
+      <c r="C411" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D411" s="44"/>
+      <c r="E411" s="44"/>
+      <c r="F411" s="44"/>
+      <c r="G411" s="44"/>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="19" t="s">
@@ -5147,25 +5300,25 @@
       <c r="B415" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="39" t="s">
+      <c r="C415" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D415" s="40"/>
-      <c r="E415" s="40"/>
-      <c r="F415" s="40"/>
-      <c r="G415" s="41"/>
+      <c r="D415" s="46"/>
+      <c r="E415" s="46"/>
+      <c r="F415" s="46"/>
+      <c r="G415" s="47"/>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="8">
         <v>1</v>
       </c>
-      <c r="C416" s="42" t="s">
+      <c r="C416" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D416" s="43"/>
-      <c r="E416" s="43"/>
-      <c r="F416" s="43"/>
-      <c r="G416" s="44"/>
+      <c r="D416" s="49"/>
+      <c r="E416" s="49"/>
+      <c r="F416" s="49"/>
+      <c r="G416" s="50"/>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="5"/>
@@ -5179,41 +5332,41 @@
       <c r="B418" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C418" s="45" t="s">
+      <c r="C418" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D418" s="46"/>
-      <c r="E418" s="47" t="s">
+      <c r="D418" s="52"/>
+      <c r="E418" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F418" s="48"/>
-      <c r="G418" s="46"/>
+      <c r="F418" s="54"/>
+      <c r="G418" s="52"/>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="10">
         <v>1</v>
       </c>
-      <c r="C419" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D419" s="29"/>
-      <c r="E419" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="F419" s="31"/>
-      <c r="G419" s="29"/>
+      <c r="C419" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D419" s="58"/>
+      <c r="E419" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="F419" s="72"/>
+      <c r="G419" s="58"/>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C421" s="32" t="s">
+      <c r="C421" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D421" s="33"/>
-      <c r="E421" s="33"/>
-      <c r="F421" s="33"/>
-      <c r="G421" s="33"/>
+      <c r="D421" s="56"/>
+      <c r="E421" s="56"/>
+      <c r="F421" s="56"/>
+      <c r="G421" s="56"/>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="15" t="s">
@@ -5228,46 +5381,46 @@
       <c r="E423" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F423" s="34" t="s">
+      <c r="F423" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G423" s="34"/>
+      <c r="G423" s="30"/>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="17">
         <v>1</v>
       </c>
       <c r="C424" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D424" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E424" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F424" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G424" s="36"/>
+      <c r="F424" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G424" s="32"/>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="18">
         <v>2</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E425" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F425" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G425" s="36"/>
+      <c r="F425" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G425" s="32"/>
     </row>
     <row r="426" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B426" s="22">
@@ -5277,41 +5430,41 @@
         <v>28</v>
       </c>
       <c r="D426" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E426" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F426" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G426" s="27"/>
+      <c r="F426" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G426" s="63"/>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B429" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C429" s="50"/>
-      <c r="D429" s="50"/>
-      <c r="E429" s="50"/>
-      <c r="F429" s="50"/>
-      <c r="G429" s="51"/>
+      <c r="B429" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C429" s="68"/>
+      <c r="D429" s="68"/>
+      <c r="E429" s="68"/>
+      <c r="F429" s="68"/>
+      <c r="G429" s="69"/>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E431" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F431" s="37"/>
-      <c r="G431" s="37"/>
+      <c r="E431" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="F431" s="73"/>
+      <c r="G431" s="73"/>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="2" t="s">
@@ -5333,13 +5486,13 @@
       <c r="B434" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C434" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="D434" s="38"/>
-      <c r="E434" s="38"/>
-      <c r="F434" s="38"/>
-      <c r="G434" s="38"/>
+      <c r="C434" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="D434" s="44"/>
+      <c r="E434" s="44"/>
+      <c r="F434" s="44"/>
+      <c r="G434" s="44"/>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="19" t="s">
@@ -5361,25 +5514,25 @@
       <c r="B438" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C438" s="39" t="s">
+      <c r="C438" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D438" s="40"/>
-      <c r="E438" s="40"/>
-      <c r="F438" s="40"/>
-      <c r="G438" s="41"/>
+      <c r="D438" s="46"/>
+      <c r="E438" s="46"/>
+      <c r="F438" s="46"/>
+      <c r="G438" s="47"/>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="8">
         <v>1</v>
       </c>
-      <c r="C439" s="42" t="s">
+      <c r="C439" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D439" s="43"/>
-      <c r="E439" s="43"/>
-      <c r="F439" s="43"/>
-      <c r="G439" s="44"/>
+      <c r="D439" s="49"/>
+      <c r="E439" s="49"/>
+      <c r="F439" s="49"/>
+      <c r="G439" s="50"/>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="5"/>
@@ -5393,41 +5546,41 @@
       <c r="B441" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C441" s="45" t="s">
+      <c r="C441" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D441" s="46"/>
-      <c r="E441" s="47" t="s">
+      <c r="D441" s="52"/>
+      <c r="E441" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F441" s="48"/>
-      <c r="G441" s="46"/>
+      <c r="F441" s="54"/>
+      <c r="G441" s="52"/>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="10">
         <v>1</v>
       </c>
-      <c r="C442" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D442" s="29"/>
-      <c r="E442" s="30">
+      <c r="C442" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D442" s="58"/>
+      <c r="E442" s="71">
         <v>2251</v>
       </c>
-      <c r="F442" s="31"/>
-      <c r="G442" s="29"/>
+      <c r="F442" s="72"/>
+      <c r="G442" s="58"/>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C444" s="32" t="s">
+      <c r="C444" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D444" s="33"/>
-      <c r="E444" s="33"/>
-      <c r="F444" s="33"/>
-      <c r="G444" s="33"/>
+      <c r="D444" s="56"/>
+      <c r="E444" s="56"/>
+      <c r="F444" s="56"/>
+      <c r="G444" s="56"/>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="15" t="s">
@@ -5442,46 +5595,46 @@
       <c r="E446" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F446" s="34" t="s">
+      <c r="F446" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G446" s="34"/>
+      <c r="G446" s="30"/>
     </row>
     <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="17">
         <v>1</v>
       </c>
       <c r="C447" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D447" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E447" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F447" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G447" s="36"/>
+      <c r="F447" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G447" s="32"/>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="18">
         <v>2</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E448" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F448" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G448" s="36"/>
+      <c r="F448" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G448" s="32"/>
     </row>
     <row r="449" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B449" s="22">
@@ -5491,51 +5644,51 @@
         <v>28</v>
       </c>
       <c r="D449" s="24" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E449" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F449" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G449" s="27"/>
+      <c r="F449" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G449" s="63"/>
     </row>
     <row r="452" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B452" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C452" s="53"/>
-      <c r="D452" s="53"/>
-      <c r="E452" s="53"/>
-      <c r="F452" s="53"/>
-      <c r="G452" s="54"/>
+      <c r="B452" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C452" s="65"/>
+      <c r="D452" s="65"/>
+      <c r="E452" s="65"/>
+      <c r="F452" s="65"/>
+      <c r="G452" s="66"/>
     </row>
     <row r="454" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B454" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C454" s="50"/>
-      <c r="D454" s="50"/>
-      <c r="E454" s="50"/>
-      <c r="F454" s="50"/>
-      <c r="G454" s="51"/>
+      <c r="B454" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C454" s="68"/>
+      <c r="D454" s="68"/>
+      <c r="E454" s="68"/>
+      <c r="F454" s="68"/>
+      <c r="G454" s="69"/>
     </row>
     <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D456" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E456" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F456" s="38"/>
-      <c r="G456" s="38"/>
+      <c r="E456" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F456" s="44"/>
+      <c r="G456" s="44"/>
     </row>
     <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" s="2" t="s">
@@ -5557,13 +5710,13 @@
       <c r="B459" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C459" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D459" s="38"/>
-      <c r="E459" s="38"/>
-      <c r="F459" s="38"/>
-      <c r="G459" s="38"/>
+      <c r="C459" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D459" s="44"/>
+      <c r="E459" s="44"/>
+      <c r="F459" s="44"/>
+      <c r="G459" s="44"/>
     </row>
     <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="19" t="s">
@@ -5585,25 +5738,25 @@
       <c r="B463" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C463" s="39" t="s">
+      <c r="C463" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D463" s="40"/>
-      <c r="E463" s="40"/>
-      <c r="F463" s="40"/>
-      <c r="G463" s="41"/>
+      <c r="D463" s="46"/>
+      <c r="E463" s="46"/>
+      <c r="F463" s="46"/>
+      <c r="G463" s="47"/>
     </row>
     <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="8">
         <v>1</v>
       </c>
-      <c r="C464" s="42" t="s">
+      <c r="C464" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D464" s="43"/>
-      <c r="E464" s="43"/>
-      <c r="F464" s="43"/>
-      <c r="G464" s="44"/>
+      <c r="D464" s="49"/>
+      <c r="E464" s="49"/>
+      <c r="F464" s="49"/>
+      <c r="G464" s="50"/>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="5"/>
@@ -5617,41 +5770,41 @@
       <c r="B466" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C466" s="45" t="s">
+      <c r="C466" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D466" s="46"/>
-      <c r="E466" s="47" t="s">
+      <c r="D466" s="52"/>
+      <c r="E466" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F466" s="48"/>
-      <c r="G466" s="46"/>
+      <c r="F466" s="54"/>
+      <c r="G466" s="52"/>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="10">
         <v>1</v>
       </c>
-      <c r="C467" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D467" s="29"/>
-      <c r="E467" s="30">
+      <c r="C467" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D467" s="58"/>
+      <c r="E467" s="71">
         <v>1125</v>
       </c>
-      <c r="F467" s="31"/>
-      <c r="G467" s="29"/>
+      <c r="F467" s="72"/>
+      <c r="G467" s="58"/>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C469" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="D469" s="33"/>
-      <c r="E469" s="33"/>
-      <c r="F469" s="33"/>
-      <c r="G469" s="33"/>
+      <c r="C469" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="D469" s="56"/>
+      <c r="E469" s="56"/>
+      <c r="F469" s="56"/>
+      <c r="G469" s="56"/>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="15" t="s">
@@ -5666,46 +5819,46 @@
       <c r="E471" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F471" s="34" t="s">
+      <c r="F471" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G471" s="34"/>
+      <c r="G471" s="30"/>
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" s="17">
         <v>1</v>
       </c>
       <c r="C472" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D472" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E472" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F472" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G472" s="36"/>
+      <c r="F472" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G472" s="32"/>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="18">
         <v>2</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E473" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F473" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G473" s="36"/>
+      <c r="F473" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G473" s="32"/>
     </row>
     <row r="474" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B474" s="18">
@@ -5715,41 +5868,41 @@
         <v>28</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E474" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F474" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G474" s="36"/>
+      <c r="F474" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G474" s="32"/>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B477" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C477" s="50"/>
-      <c r="D477" s="50"/>
-      <c r="E477" s="50"/>
-      <c r="F477" s="50"/>
-      <c r="G477" s="51"/>
+      <c r="B477" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="C477" s="68"/>
+      <c r="D477" s="68"/>
+      <c r="E477" s="68"/>
+      <c r="F477" s="68"/>
+      <c r="G477" s="69"/>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D479" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E479" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F479" s="38"/>
-      <c r="G479" s="38"/>
+      <c r="E479" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F479" s="44"/>
+      <c r="G479" s="44"/>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="2" t="s">
@@ -5771,13 +5924,13 @@
       <c r="B482" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C482" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D482" s="38"/>
-      <c r="E482" s="38"/>
-      <c r="F482" s="38"/>
-      <c r="G482" s="38"/>
+      <c r="C482" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D482" s="44"/>
+      <c r="E482" s="44"/>
+      <c r="F482" s="44"/>
+      <c r="G482" s="44"/>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="19" t="s">
@@ -5799,25 +5952,25 @@
       <c r="B486" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C486" s="39" t="s">
+      <c r="C486" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D486" s="40"/>
-      <c r="E486" s="40"/>
-      <c r="F486" s="40"/>
-      <c r="G486" s="41"/>
+      <c r="D486" s="46"/>
+      <c r="E486" s="46"/>
+      <c r="F486" s="46"/>
+      <c r="G486" s="47"/>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="8">
         <v>1</v>
       </c>
-      <c r="C487" s="42" t="s">
+      <c r="C487" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D487" s="43"/>
-      <c r="E487" s="43"/>
-      <c r="F487" s="43"/>
-      <c r="G487" s="44"/>
+      <c r="D487" s="49"/>
+      <c r="E487" s="49"/>
+      <c r="F487" s="49"/>
+      <c r="G487" s="50"/>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="5"/>
@@ -5831,41 +5984,41 @@
       <c r="B489" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C489" s="45" t="s">
+      <c r="C489" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D489" s="46"/>
-      <c r="E489" s="47" t="s">
+      <c r="D489" s="52"/>
+      <c r="E489" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F489" s="48"/>
-      <c r="G489" s="46"/>
+      <c r="F489" s="54"/>
+      <c r="G489" s="52"/>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B490" s="10">
         <v>1</v>
       </c>
-      <c r="C490" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D490" s="29"/>
-      <c r="E490" s="30" t="s">
+      <c r="C490" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D490" s="58"/>
+      <c r="E490" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F490" s="31"/>
-      <c r="G490" s="29"/>
+      <c r="F490" s="72"/>
+      <c r="G490" s="58"/>
     </row>
     <row r="492" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B492" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C492" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D492" s="33"/>
-      <c r="E492" s="33"/>
-      <c r="F492" s="33"/>
-      <c r="G492" s="33"/>
+      <c r="C492" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D492" s="56"/>
+      <c r="E492" s="56"/>
+      <c r="F492" s="56"/>
+      <c r="G492" s="56"/>
     </row>
     <row r="494" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B494" s="15" t="s">
@@ -5880,46 +6033,46 @@
       <c r="E494" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F494" s="34" t="s">
+      <c r="F494" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G494" s="34"/>
+      <c r="G494" s="30"/>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B495" s="17">
         <v>1</v>
       </c>
       <c r="C495" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D495" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E495" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F495" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G495" s="36"/>
+      <c r="F495" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G495" s="32"/>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="18">
         <v>2</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E496" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F496" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G496" s="36"/>
+      <c r="F496" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G496" s="32"/>
     </row>
     <row r="497" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B497" s="18">
@@ -5929,41 +6082,41 @@
         <v>28</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E497" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F497" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G497" s="36"/>
+      <c r="F497" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G497" s="32"/>
     </row>
     <row r="500" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B500" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C500" s="50"/>
-      <c r="D500" s="50"/>
-      <c r="E500" s="50"/>
-      <c r="F500" s="50"/>
-      <c r="G500" s="51"/>
+      <c r="B500" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C500" s="68"/>
+      <c r="D500" s="68"/>
+      <c r="E500" s="68"/>
+      <c r="F500" s="68"/>
+      <c r="G500" s="69"/>
     </row>
     <row r="502" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B502" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D502" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E502" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F502" s="38"/>
-      <c r="G502" s="38"/>
+      <c r="E502" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F502" s="44"/>
+      <c r="G502" s="44"/>
     </row>
     <row r="503" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B503" s="2" t="s">
@@ -5985,13 +6138,13 @@
       <c r="B505" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C505" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D505" s="38"/>
-      <c r="E505" s="38"/>
-      <c r="F505" s="38"/>
-      <c r="G505" s="38"/>
+      <c r="C505" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D505" s="44"/>
+      <c r="E505" s="44"/>
+      <c r="F505" s="44"/>
+      <c r="G505" s="44"/>
     </row>
     <row r="507" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B507" s="19" t="s">
@@ -6013,25 +6166,25 @@
       <c r="B509" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C509" s="39" t="s">
+      <c r="C509" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D509" s="40"/>
-      <c r="E509" s="40"/>
-      <c r="F509" s="40"/>
-      <c r="G509" s="41"/>
+      <c r="D509" s="46"/>
+      <c r="E509" s="46"/>
+      <c r="F509" s="46"/>
+      <c r="G509" s="47"/>
     </row>
     <row r="510" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B510" s="8">
         <v>1</v>
       </c>
-      <c r="C510" s="42" t="s">
+      <c r="C510" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D510" s="43"/>
-      <c r="E510" s="43"/>
-      <c r="F510" s="43"/>
-      <c r="G510" s="44"/>
+      <c r="D510" s="49"/>
+      <c r="E510" s="49"/>
+      <c r="F510" s="49"/>
+      <c r="G510" s="50"/>
     </row>
     <row r="511" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B511" s="5"/>
@@ -6045,41 +6198,41 @@
       <c r="B512" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C512" s="45" t="s">
+      <c r="C512" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D512" s="46"/>
-      <c r="E512" s="47" t="s">
+      <c r="D512" s="52"/>
+      <c r="E512" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F512" s="48"/>
-      <c r="G512" s="46"/>
+      <c r="F512" s="54"/>
+      <c r="G512" s="52"/>
     </row>
     <row r="513" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B513" s="10">
         <v>1</v>
       </c>
-      <c r="C513" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D513" s="29"/>
-      <c r="E513" s="30">
+      <c r="C513" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D513" s="58"/>
+      <c r="E513" s="71">
         <v>1111</v>
       </c>
-      <c r="F513" s="31"/>
-      <c r="G513" s="29"/>
+      <c r="F513" s="72"/>
+      <c r="G513" s="58"/>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B515" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C515" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D515" s="33"/>
-      <c r="E515" s="33"/>
-      <c r="F515" s="33"/>
-      <c r="G515" s="33"/>
+      <c r="C515" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D515" s="56"/>
+      <c r="E515" s="56"/>
+      <c r="F515" s="56"/>
+      <c r="G515" s="56"/>
     </row>
     <row r="517" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B517" s="15" t="s">
@@ -6094,46 +6247,46 @@
       <c r="E517" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F517" s="34" t="s">
+      <c r="F517" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G517" s="34"/>
+      <c r="G517" s="30"/>
     </row>
     <row r="518" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B518" s="17">
         <v>1</v>
       </c>
       <c r="C518" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D518" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E518" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F518" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G518" s="36"/>
+      <c r="F518" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G518" s="32"/>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B519" s="18">
         <v>2</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E519" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F519" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G519" s="36"/>
+      <c r="F519" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G519" s="32"/>
     </row>
     <row r="520" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B520" s="22">
@@ -6143,41 +6296,41 @@
         <v>28</v>
       </c>
       <c r="D520" s="24" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E520" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F520" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G520" s="27"/>
+      <c r="F520" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G520" s="63"/>
     </row>
     <row r="523" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B523" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C523" s="50"/>
-      <c r="D523" s="50"/>
-      <c r="E523" s="50"/>
-      <c r="F523" s="50"/>
-      <c r="G523" s="51"/>
+      <c r="B523" s="67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C523" s="68"/>
+      <c r="D523" s="68"/>
+      <c r="E523" s="68"/>
+      <c r="F523" s="68"/>
+      <c r="G523" s="69"/>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B525" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D525" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E525" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F525" s="38"/>
-      <c r="G525" s="38"/>
+      <c r="E525" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F525" s="44"/>
+      <c r="G525" s="44"/>
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B526" s="2" t="s">
@@ -6199,13 +6352,13 @@
       <c r="B528" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C528" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D528" s="38"/>
-      <c r="E528" s="38"/>
-      <c r="F528" s="38"/>
-      <c r="G528" s="38"/>
+      <c r="C528" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D528" s="44"/>
+      <c r="E528" s="44"/>
+      <c r="F528" s="44"/>
+      <c r="G528" s="44"/>
     </row>
     <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B530" s="19" t="s">
@@ -6227,25 +6380,25 @@
       <c r="B532" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C532" s="39" t="s">
+      <c r="C532" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D532" s="40"/>
-      <c r="E532" s="40"/>
-      <c r="F532" s="40"/>
-      <c r="G532" s="41"/>
+      <c r="D532" s="46"/>
+      <c r="E532" s="46"/>
+      <c r="F532" s="46"/>
+      <c r="G532" s="47"/>
     </row>
     <row r="533" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B533" s="8">
         <v>1</v>
       </c>
-      <c r="C533" s="42" t="s">
+      <c r="C533" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D533" s="43"/>
-      <c r="E533" s="43"/>
-      <c r="F533" s="43"/>
-      <c r="G533" s="44"/>
+      <c r="D533" s="49"/>
+      <c r="E533" s="49"/>
+      <c r="F533" s="49"/>
+      <c r="G533" s="50"/>
     </row>
     <row r="534" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B534" s="5"/>
@@ -6259,41 +6412,41 @@
       <c r="B535" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C535" s="45" t="s">
+      <c r="C535" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D535" s="46"/>
-      <c r="E535" s="47" t="s">
+      <c r="D535" s="52"/>
+      <c r="E535" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F535" s="48"/>
-      <c r="G535" s="46"/>
+      <c r="F535" s="54"/>
+      <c r="G535" s="52"/>
     </row>
     <row r="536" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B536" s="10">
         <v>1</v>
       </c>
-      <c r="C536" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D536" s="29"/>
-      <c r="E536" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F536" s="57"/>
-      <c r="G536" s="58"/>
+      <c r="C536" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D536" s="58"/>
+      <c r="E536" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F536" s="60"/>
+      <c r="G536" s="61"/>
     </row>
     <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B538" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C538" s="32" t="s">
+      <c r="C538" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D538" s="33"/>
-      <c r="E538" s="33"/>
-      <c r="F538" s="33"/>
-      <c r="G538" s="33"/>
+      <c r="D538" s="56"/>
+      <c r="E538" s="56"/>
+      <c r="F538" s="56"/>
+      <c r="G538" s="56"/>
     </row>
     <row r="540" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B540" s="15" t="s">
@@ -6308,46 +6461,46 @@
       <c r="E540" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F540" s="34" t="s">
+      <c r="F540" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G540" s="34"/>
+      <c r="G540" s="30"/>
     </row>
     <row r="541" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B541" s="17">
         <v>1</v>
       </c>
       <c r="C541" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D541" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E541" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F541" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G541" s="36"/>
+      <c r="F541" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G541" s="32"/>
     </row>
     <row r="542" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B542" s="18">
         <v>2</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E542" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F542" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G542" s="36"/>
+      <c r="F542" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G542" s="32"/>
     </row>
     <row r="543" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B543" s="22">
@@ -6357,41 +6510,41 @@
         <v>28</v>
       </c>
       <c r="D543" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E543" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F543" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G543" s="27"/>
+      <c r="F543" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G543" s="63"/>
     </row>
     <row r="546" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B546" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="C546" s="50"/>
-      <c r="D546" s="50"/>
-      <c r="E546" s="50"/>
-      <c r="F546" s="50"/>
-      <c r="G546" s="51"/>
+      <c r="B546" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C546" s="68"/>
+      <c r="D546" s="68"/>
+      <c r="E546" s="68"/>
+      <c r="F546" s="68"/>
+      <c r="G546" s="69"/>
     </row>
     <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B548" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E548" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="F548" s="38"/>
-      <c r="G548" s="38"/>
+      <c r="E548" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="F548" s="44"/>
+      <c r="G548" s="44"/>
     </row>
     <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B549" s="2" t="s">
@@ -6413,13 +6566,13 @@
       <c r="B551" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C551" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D551" s="38"/>
-      <c r="E551" s="38"/>
-      <c r="F551" s="38"/>
-      <c r="G551" s="38"/>
+      <c r="C551" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D551" s="44"/>
+      <c r="E551" s="44"/>
+      <c r="F551" s="44"/>
+      <c r="G551" s="44"/>
     </row>
     <row r="553" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B553" s="19" t="s">
@@ -6441,25 +6594,25 @@
       <c r="B555" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C555" s="39" t="s">
+      <c r="C555" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D555" s="40"/>
-      <c r="E555" s="40"/>
-      <c r="F555" s="40"/>
-      <c r="G555" s="41"/>
+      <c r="D555" s="46"/>
+      <c r="E555" s="46"/>
+      <c r="F555" s="46"/>
+      <c r="G555" s="47"/>
     </row>
     <row r="556" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B556" s="8">
         <v>1</v>
       </c>
-      <c r="C556" s="42" t="s">
+      <c r="C556" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D556" s="43"/>
-      <c r="E556" s="43"/>
-      <c r="F556" s="43"/>
-      <c r="G556" s="44"/>
+      <c r="D556" s="49"/>
+      <c r="E556" s="49"/>
+      <c r="F556" s="49"/>
+      <c r="G556" s="50"/>
     </row>
     <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B557" s="5"/>
@@ -6473,41 +6626,41 @@
       <c r="B558" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C558" s="45" t="s">
+      <c r="C558" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D558" s="46"/>
-      <c r="E558" s="47" t="s">
+      <c r="D558" s="52"/>
+      <c r="E558" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F558" s="48"/>
-      <c r="G558" s="46"/>
+      <c r="F558" s="54"/>
+      <c r="G558" s="52"/>
     </row>
     <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="10">
         <v>1</v>
       </c>
-      <c r="C559" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D559" s="29"/>
+      <c r="C559" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D559" s="58"/>
       <c r="E559" s="59">
         <v>45973</v>
       </c>
-      <c r="F559" s="57"/>
-      <c r="G559" s="58"/>
+      <c r="F559" s="60"/>
+      <c r="G559" s="61"/>
     </row>
     <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B561" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C561" s="32" t="s">
+      <c r="C561" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D561" s="33"/>
-      <c r="E561" s="33"/>
-      <c r="F561" s="33"/>
-      <c r="G561" s="33"/>
+      <c r="D561" s="56"/>
+      <c r="E561" s="56"/>
+      <c r="F561" s="56"/>
+      <c r="G561" s="56"/>
     </row>
     <row r="563" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B563" s="15" t="s">
@@ -6522,46 +6675,46 @@
       <c r="E563" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F563" s="34" t="s">
+      <c r="F563" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G563" s="34"/>
+      <c r="G563" s="30"/>
     </row>
     <row r="564" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B564" s="17">
         <v>1</v>
       </c>
       <c r="C564" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D564" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E564" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F564" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G564" s="36"/>
+      <c r="F564" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G564" s="32"/>
     </row>
     <row r="565" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B565" s="18">
         <v>2</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E565" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F565" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G565" s="36"/>
+      <c r="F565" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G565" s="32"/>
     </row>
     <row r="566" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B566" s="22">
@@ -6571,51 +6724,51 @@
         <v>28</v>
       </c>
       <c r="D566" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E566" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="F566" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G566" s="27"/>
+      <c r="F566" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G566" s="63"/>
     </row>
     <row r="569" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="B569" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C569" s="53"/>
-      <c r="D569" s="53"/>
-      <c r="E569" s="53"/>
-      <c r="F569" s="53"/>
-      <c r="G569" s="54"/>
+      <c r="B569" s="64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C569" s="65"/>
+      <c r="D569" s="65"/>
+      <c r="E569" s="65"/>
+      <c r="F569" s="65"/>
+      <c r="G569" s="66"/>
     </row>
     <row r="571" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B571" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C571" s="50"/>
-      <c r="D571" s="50"/>
-      <c r="E571" s="50"/>
-      <c r="F571" s="50"/>
-      <c r="G571" s="51"/>
+      <c r="B571" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C571" s="68"/>
+      <c r="D571" s="68"/>
+      <c r="E571" s="68"/>
+      <c r="F571" s="68"/>
+      <c r="G571" s="69"/>
     </row>
     <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B573" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D573" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E573" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="F573" s="38"/>
-      <c r="G573" s="38"/>
+      <c r="E573" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="F573" s="44"/>
+      <c r="G573" s="44"/>
     </row>
     <row r="574" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B574" s="2" t="s">
@@ -6637,13 +6790,13 @@
       <c r="B576" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C576" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="D576" s="38"/>
-      <c r="E576" s="38"/>
-      <c r="F576" s="38"/>
-      <c r="G576" s="38"/>
+      <c r="C576" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="D576" s="44"/>
+      <c r="E576" s="44"/>
+      <c r="F576" s="44"/>
+      <c r="G576" s="44"/>
     </row>
     <row r="578" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B578" s="19" t="s">
@@ -6665,25 +6818,25 @@
       <c r="B580" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C580" s="39" t="s">
+      <c r="C580" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D580" s="40"/>
-      <c r="E580" s="40"/>
-      <c r="F580" s="40"/>
-      <c r="G580" s="41"/>
+      <c r="D580" s="46"/>
+      <c r="E580" s="46"/>
+      <c r="F580" s="46"/>
+      <c r="G580" s="47"/>
     </row>
     <row r="581" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B581" s="8">
         <v>1</v>
       </c>
-      <c r="C581" s="42" t="s">
+      <c r="C581" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D581" s="43"/>
-      <c r="E581" s="43"/>
-      <c r="F581" s="43"/>
-      <c r="G581" s="44"/>
+      <c r="D581" s="49"/>
+      <c r="E581" s="49"/>
+      <c r="F581" s="49"/>
+      <c r="G581" s="50"/>
     </row>
     <row r="582" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B582" s="5"/>
@@ -6697,99 +6850,99 @@
       <c r="B583" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C583" s="45" t="s">
+      <c r="C583" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D583" s="46"/>
-      <c r="E583" s="47" t="s">
+      <c r="D583" s="52"/>
+      <c r="E583" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="F583" s="48"/>
-      <c r="G583" s="46"/>
+      <c r="F583" s="54"/>
+      <c r="G583" s="52"/>
     </row>
     <row r="584" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B584" s="62">
-        <v>1</v>
-      </c>
-      <c r="C584" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D584" s="64"/>
-      <c r="E584" s="65">
+      <c r="B584" s="38">
+        <v>1</v>
+      </c>
+      <c r="C584" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D584" s="41"/>
+      <c r="E584" s="42">
         <v>100000</v>
       </c>
-      <c r="F584" s="66"/>
-      <c r="G584" s="64"/>
+      <c r="F584" s="43"/>
+      <c r="G584" s="41"/>
     </row>
     <row r="585" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B585" s="67"/>
-      <c r="C585" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D585" s="69"/>
-      <c r="E585" s="70">
+      <c r="B585" s="39"/>
+      <c r="C585" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D585" s="37"/>
+      <c r="E585" s="33">
         <v>20000</v>
       </c>
-      <c r="F585" s="71"/>
-      <c r="G585" s="72"/>
+      <c r="F585" s="34"/>
+      <c r="G585" s="35"/>
     </row>
     <row r="586" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B586" s="62">
+      <c r="B586" s="38">
         <v>2</v>
       </c>
-      <c r="C586" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D586" s="64"/>
-      <c r="E586" s="65">
+      <c r="C586" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D586" s="41"/>
+      <c r="E586" s="42">
         <v>100000</v>
       </c>
-      <c r="F586" s="66"/>
-      <c r="G586" s="64"/>
+      <c r="F586" s="43"/>
+      <c r="G586" s="41"/>
     </row>
     <row r="587" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B587" s="67"/>
-      <c r="C587" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D587" s="69"/>
-      <c r="E587" s="70">
+      <c r="B587" s="39"/>
+      <c r="C587" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D587" s="37"/>
+      <c r="E587" s="33">
         <v>50000</v>
       </c>
-      <c r="F587" s="71"/>
-      <c r="G587" s="72"/>
+      <c r="F587" s="34"/>
+      <c r="G587" s="35"/>
     </row>
     <row r="588" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B588" s="62">
+      <c r="B588" s="38">
         <v>3</v>
       </c>
-      <c r="C588" s="63" t="s">
-        <v>151</v>
-      </c>
-      <c r="D588" s="64"/>
-      <c r="E588" s="65">
+      <c r="C588" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D588" s="41"/>
+      <c r="E588" s="42">
         <v>100000</v>
       </c>
-      <c r="F588" s="66"/>
-      <c r="G588" s="64"/>
+      <c r="F588" s="43"/>
+      <c r="G588" s="41"/>
     </row>
     <row r="589" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B589" s="67"/>
-      <c r="C589" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D589" s="69"/>
-      <c r="E589" s="70">
+      <c r="B589" s="39"/>
+      <c r="C589" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D589" s="37"/>
+      <c r="E589" s="33">
         <v>130000</v>
       </c>
-      <c r="F589" s="71"/>
-      <c r="G589" s="72"/>
+      <c r="F589" s="34"/>
+      <c r="G589" s="35"/>
     </row>
     <row r="590" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B590" s="60"/>
+      <c r="B590" s="28"/>
       <c r="C590" s="6"/>
       <c r="D590" s="7"/>
-      <c r="E590" s="61"/>
+      <c r="E590" s="29"/>
       <c r="F590" s="7"/>
       <c r="G590" s="7"/>
     </row>
@@ -6797,13 +6950,13 @@
       <c r="B591" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C591" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="D591" s="33"/>
-      <c r="E591" s="33"/>
-      <c r="F591" s="33"/>
-      <c r="G591" s="33"/>
+      <c r="C591" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="D591" s="56"/>
+      <c r="E591" s="56"/>
+      <c r="F591" s="56"/>
+      <c r="G591" s="56"/>
     </row>
     <row r="593" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B593" s="15" t="s">
@@ -6818,194 +6971,1306 @@
       <c r="E593" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F593" s="34" t="s">
+      <c r="F593" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G593" s="34"/>
+      <c r="G593" s="30"/>
     </row>
     <row r="594" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B594" s="17">
         <v>1</v>
       </c>
       <c r="C594" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D594" s="16" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E594" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F594" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G594" s="36"/>
+      <c r="F594" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G594" s="32"/>
     </row>
     <row r="595" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B595" s="18">
         <v>2</v>
       </c>
       <c r="C595" s="16" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D595" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E595" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F595" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G595" s="36"/>
+      <c r="F595" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G595" s="32"/>
     </row>
     <row r="596" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B596" s="18">
         <v>3</v>
       </c>
       <c r="C596" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D596" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E596" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F596" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G596" s="36"/>
+      <c r="F596" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G596" s="32"/>
+    </row>
+    <row r="599" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B599" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C599" s="65"/>
+      <c r="D599" s="65"/>
+      <c r="E599" s="65"/>
+      <c r="F599" s="65"/>
+      <c r="G599" s="66"/>
+    </row>
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B601" s="67" t="s">
+        <v>147</v>
+      </c>
+      <c r="C601" s="68"/>
+      <c r="D601" s="68"/>
+      <c r="E601" s="68"/>
+      <c r="F601" s="68"/>
+      <c r="G601" s="69"/>
+    </row>
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B603" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D603" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E603" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F603" s="44"/>
+      <c r="G603" s="44"/>
+    </row>
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B604" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C604" s="3"/>
+      <c r="D604" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E604" s="3"/>
+      <c r="F604" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G604" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B606" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C606" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D606" s="44"/>
+      <c r="E606" s="44"/>
+      <c r="F606" s="44"/>
+      <c r="G606" s="44"/>
+    </row>
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B608" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C608" s="21"/>
+      <c r="D608" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E608" s="21"/>
+      <c r="F608" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B610" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C610" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D610" s="46"/>
+      <c r="E610" s="46"/>
+      <c r="F610" s="46"/>
+      <c r="G610" s="47"/>
+    </row>
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B611" s="8">
+        <v>1</v>
+      </c>
+      <c r="C611" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="49"/>
+      <c r="E611" s="49"/>
+      <c r="F611" s="49"/>
+      <c r="G611" s="50"/>
+    </row>
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B612" s="5"/>
+      <c r="C612" s="6"/>
+      <c r="D612" s="7"/>
+      <c r="E612" s="7"/>
+      <c r="F612" s="7"/>
+      <c r="G612" s="7"/>
+    </row>
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B613" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C613" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D613" s="52"/>
+      <c r="E613" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F613" s="54"/>
+      <c r="G613" s="52"/>
+    </row>
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B614" s="38">
+        <v>1</v>
+      </c>
+      <c r="C614" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D614" s="41"/>
+      <c r="E614" s="42">
+        <v>1000000000</v>
+      </c>
+      <c r="F614" s="43"/>
+      <c r="G614" s="41"/>
+    </row>
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B615" s="75"/>
+      <c r="C615" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D615" s="37"/>
+      <c r="E615" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F615" s="34"/>
+      <c r="G615" s="35"/>
+    </row>
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B616" s="75"/>
+      <c r="C616" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D616" s="41"/>
+      <c r="E616" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F616" s="43"/>
+      <c r="G616" s="41"/>
+    </row>
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B617" s="75"/>
+      <c r="C617" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D617" s="37"/>
+      <c r="E617" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F617" s="34"/>
+      <c r="G617" s="35"/>
+    </row>
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B618" s="75"/>
+      <c r="C618" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D618" s="41"/>
+      <c r="E618" s="42">
+        <v>1125</v>
+      </c>
+      <c r="F618" s="43"/>
+      <c r="G618" s="41"/>
+    </row>
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B619" s="39"/>
+      <c r="C619" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D619" s="37"/>
+      <c r="E619" s="33">
+        <v>721</v>
+      </c>
+      <c r="F619" s="34"/>
+      <c r="G619" s="35"/>
+    </row>
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B620" s="28"/>
+      <c r="C620" s="6"/>
+      <c r="D620" s="7"/>
+      <c r="E620" s="29"/>
+      <c r="F620" s="7"/>
+      <c r="G620" s="7"/>
+    </row>
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B621" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C621" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="D621" s="56"/>
+      <c r="E621" s="56"/>
+      <c r="F621" s="56"/>
+      <c r="G621" s="56"/>
+    </row>
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B623" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C623" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D623" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E623" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F623" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G623" s="30"/>
+    </row>
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B624" s="17">
+        <v>1</v>
+      </c>
+      <c r="C624" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D624" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E624" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F624" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G624" s="32"/>
+    </row>
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B625" s="27">
+        <v>2</v>
+      </c>
+      <c r="C625" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E625" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F625" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G625" s="32"/>
+    </row>
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B626" s="27">
+        <v>3</v>
+      </c>
+      <c r="C626" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D626" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E626" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F626" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G626" s="32"/>
+    </row>
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B629" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C629" s="68"/>
+      <c r="D629" s="68"/>
+      <c r="E629" s="68"/>
+      <c r="F629" s="68"/>
+      <c r="G629" s="69"/>
+    </row>
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B631" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C631" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D631" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E631" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="F631" s="44"/>
+      <c r="G631" s="44"/>
+    </row>
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B632" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C632" s="3"/>
+      <c r="D632" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E632" s="3"/>
+      <c r="F632" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G632" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B634" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C634" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="D634" s="44"/>
+      <c r="E634" s="44"/>
+      <c r="F634" s="44"/>
+      <c r="G634" s="44"/>
+    </row>
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B636" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C636" s="21"/>
+      <c r="D636" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E636" s="21"/>
+      <c r="F636" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G636" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B638" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D638" s="46"/>
+      <c r="E638" s="46"/>
+      <c r="F638" s="46"/>
+      <c r="G638" s="47"/>
+    </row>
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B639" s="8">
+        <v>1</v>
+      </c>
+      <c r="C639" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D639" s="49"/>
+      <c r="E639" s="49"/>
+      <c r="F639" s="49"/>
+      <c r="G639" s="50"/>
+    </row>
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B640" s="5"/>
+      <c r="C640" s="6"/>
+      <c r="D640" s="7"/>
+      <c r="E640" s="7"/>
+      <c r="F640" s="7"/>
+      <c r="G640" s="7"/>
+    </row>
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B641" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C641" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D641" s="52"/>
+      <c r="E641" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F641" s="54"/>
+      <c r="G641" s="52"/>
+    </row>
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B642" s="38">
+        <v>1</v>
+      </c>
+      <c r="C642" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D642" s="41"/>
+      <c r="E642" s="42">
+        <v>1000000000</v>
+      </c>
+      <c r="F642" s="43"/>
+      <c r="G642" s="41"/>
+    </row>
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B643" s="75"/>
+      <c r="C643" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D643" s="37"/>
+      <c r="E643" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F643" s="34"/>
+      <c r="G643" s="35"/>
+    </row>
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B644" s="75"/>
+      <c r="C644" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D644" s="41"/>
+      <c r="E644" s="42">
+        <v>199001008</v>
+      </c>
+      <c r="F644" s="43"/>
+      <c r="G644" s="41"/>
+    </row>
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B645" s="75"/>
+      <c r="C645" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D645" s="37"/>
+      <c r="E645" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F645" s="34"/>
+      <c r="G645" s="35"/>
+    </row>
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B646" s="75"/>
+      <c r="C646" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D646" s="41"/>
+      <c r="E646" s="42">
+        <v>1125</v>
+      </c>
+      <c r="F646" s="43"/>
+      <c r="G646" s="41"/>
+    </row>
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B647" s="39"/>
+      <c r="C647" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D647" s="37"/>
+      <c r="E647" s="33">
+        <v>721</v>
+      </c>
+      <c r="F647" s="34"/>
+      <c r="G647" s="35"/>
+    </row>
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B648" s="28"/>
+      <c r="C648" s="6"/>
+      <c r="D648" s="7"/>
+      <c r="E648" s="29"/>
+      <c r="F648" s="7"/>
+      <c r="G648" s="7"/>
+    </row>
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B649" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C649" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D649" s="56"/>
+      <c r="E649" s="56"/>
+      <c r="F649" s="56"/>
+      <c r="G649" s="56"/>
+    </row>
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B651" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C651" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D651" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E651" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F651" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G651" s="30"/>
+    </row>
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B652" s="17">
+        <v>1</v>
+      </c>
+      <c r="C652" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D652" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E652" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F652" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G652" s="32"/>
+    </row>
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B653" s="27">
+        <v>2</v>
+      </c>
+      <c r="C653" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E653" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F653" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G653" s="32"/>
+    </row>
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B654" s="27">
+        <v>3</v>
+      </c>
+      <c r="C654" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="D654" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E654" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F654" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G654" s="32"/>
+    </row>
+    <row r="657" spans="2:7" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B657" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C657" s="65"/>
+      <c r="D657" s="65"/>
+      <c r="E657" s="65"/>
+      <c r="F657" s="65"/>
+      <c r="G657" s="66"/>
+    </row>
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B659" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="C659" s="68"/>
+      <c r="D659" s="68"/>
+      <c r="E659" s="68"/>
+      <c r="F659" s="68"/>
+      <c r="G659" s="69"/>
+    </row>
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B661" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D661" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E661" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="F661" s="44"/>
+      <c r="G661" s="44"/>
+    </row>
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B662" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C662" s="3"/>
+      <c r="D662" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E662" s="3"/>
+      <c r="F662" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G662" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B664" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C664" s="44" t="s">
+        <v>176</v>
+      </c>
+      <c r="D664" s="44"/>
+      <c r="E664" s="44"/>
+      <c r="F664" s="44"/>
+      <c r="G664" s="44"/>
+    </row>
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B666" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C666" s="21"/>
+      <c r="D666" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E666" s="21"/>
+      <c r="F666" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B668" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C668" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D668" s="46"/>
+      <c r="E668" s="46"/>
+      <c r="F668" s="46"/>
+      <c r="G668" s="47"/>
+    </row>
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B669" s="8">
+        <v>1</v>
+      </c>
+      <c r="C669" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D669" s="49"/>
+      <c r="E669" s="49"/>
+      <c r="F669" s="49"/>
+      <c r="G669" s="50"/>
+    </row>
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B670" s="5"/>
+      <c r="C670" s="6"/>
+      <c r="D670" s="7"/>
+      <c r="E670" s="7"/>
+      <c r="F670" s="7"/>
+      <c r="G670" s="7"/>
+    </row>
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B671" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C671" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D671" s="52"/>
+      <c r="E671" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F671" s="54"/>
+      <c r="G671" s="52"/>
+    </row>
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B672" s="38">
+        <v>1</v>
+      </c>
+      <c r="C672" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D672" s="41"/>
+      <c r="E672" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F672" s="43"/>
+      <c r="G672" s="41"/>
+    </row>
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B673" s="75"/>
+      <c r="C673" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D673" s="37"/>
+      <c r="E673" s="33">
+        <v>7</v>
+      </c>
+      <c r="F673" s="34"/>
+      <c r="G673" s="35"/>
+    </row>
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B674" s="39"/>
+      <c r="C674" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D674" s="77"/>
+      <c r="E674" s="78">
+        <v>0</v>
+      </c>
+      <c r="F674" s="79"/>
+      <c r="G674" s="77"/>
+    </row>
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B675" s="38">
+        <v>1</v>
+      </c>
+      <c r="C675" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D675" s="41"/>
+      <c r="E675" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="F675" s="43"/>
+      <c r="G675" s="41"/>
+    </row>
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B676" s="75"/>
+      <c r="C676" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D676" s="37"/>
+      <c r="E676" s="33">
+        <v>25</v>
+      </c>
+      <c r="F676" s="34"/>
+      <c r="G676" s="35"/>
+    </row>
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B677" s="39"/>
+      <c r="C677" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D677" s="77"/>
+      <c r="E677" s="78">
+        <v>20000</v>
+      </c>
+      <c r="F677" s="79"/>
+      <c r="G677" s="77"/>
+    </row>
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B678" s="38">
+        <v>1</v>
+      </c>
+      <c r="C678" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D678" s="41"/>
+      <c r="E678" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="F678" s="43"/>
+      <c r="G678" s="41"/>
+    </row>
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B679" s="75"/>
+      <c r="C679" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D679" s="37"/>
+      <c r="E679" s="33">
+        <v>52</v>
+      </c>
+      <c r="F679" s="34"/>
+      <c r="G679" s="35"/>
+    </row>
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B680" s="39"/>
+      <c r="C680" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D680" s="77"/>
+      <c r="E680" s="78">
+        <v>32000</v>
+      </c>
+      <c r="F680" s="79"/>
+      <c r="G680" s="77"/>
+    </row>
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B681" s="38">
+        <v>1</v>
+      </c>
+      <c r="C681" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="D681" s="41"/>
+      <c r="E681" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="F681" s="43"/>
+      <c r="G681" s="41"/>
+    </row>
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B682" s="75"/>
+      <c r="C682" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D682" s="37"/>
+      <c r="E682" s="33">
+        <v>61</v>
+      </c>
+      <c r="F682" s="34"/>
+      <c r="G682" s="35"/>
+    </row>
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B683" s="39"/>
+      <c r="C683" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D683" s="77"/>
+      <c r="E683" s="78">
+        <v>19000</v>
+      </c>
+      <c r="F683" s="79"/>
+      <c r="G683" s="77"/>
+    </row>
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B684" s="83"/>
+      <c r="C684" s="84"/>
+      <c r="D684" s="85"/>
+      <c r="E684" s="86"/>
+      <c r="F684" s="85"/>
+      <c r="G684" s="85"/>
+    </row>
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B685" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C685" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="D685" s="81"/>
+      <c r="E685" s="81"/>
+      <c r="F685" s="81"/>
+      <c r="G685" s="82"/>
+    </row>
+    <row r="686" spans="2:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B687" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C687" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D687" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E687" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F687" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="G687" s="30"/>
+    </row>
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B688" s="17">
+        <v>1</v>
+      </c>
+      <c r="C688" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D688" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E688" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F688" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G688" s="32"/>
+    </row>
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B689" s="27">
+        <v>2</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E689" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F689" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G689" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
-    <mergeCell ref="F593:G593"/>
-    <mergeCell ref="F594:G594"/>
-    <mergeCell ref="F595:G595"/>
-    <mergeCell ref="F596:G596"/>
-    <mergeCell ref="E585:G585"/>
-    <mergeCell ref="C585:D585"/>
-    <mergeCell ref="B584:B585"/>
-    <mergeCell ref="B586:B587"/>
-    <mergeCell ref="C586:D586"/>
-    <mergeCell ref="E586:G586"/>
-    <mergeCell ref="C587:D587"/>
-    <mergeCell ref="E587:G587"/>
-    <mergeCell ref="B588:B589"/>
-    <mergeCell ref="C588:D588"/>
-    <mergeCell ref="E588:G588"/>
-    <mergeCell ref="C589:D589"/>
-    <mergeCell ref="E589:G589"/>
-    <mergeCell ref="E573:G573"/>
-    <mergeCell ref="C576:G576"/>
-    <mergeCell ref="C580:G580"/>
-    <mergeCell ref="C581:G581"/>
-    <mergeCell ref="C583:D583"/>
-    <mergeCell ref="E583:G583"/>
-    <mergeCell ref="C584:D584"/>
-    <mergeCell ref="E584:G584"/>
-    <mergeCell ref="C591:G591"/>
-    <mergeCell ref="C559:D559"/>
-    <mergeCell ref="E559:G559"/>
-    <mergeCell ref="C561:G561"/>
-    <mergeCell ref="F563:G563"/>
-    <mergeCell ref="F564:G564"/>
-    <mergeCell ref="F565:G565"/>
-    <mergeCell ref="F566:G566"/>
-    <mergeCell ref="B569:G569"/>
-    <mergeCell ref="B571:G571"/>
-    <mergeCell ref="F541:G541"/>
-    <mergeCell ref="F542:G542"/>
-    <mergeCell ref="F543:G543"/>
-    <mergeCell ref="B546:G546"/>
-    <mergeCell ref="E548:G548"/>
-    <mergeCell ref="C551:G551"/>
-    <mergeCell ref="C555:G555"/>
-    <mergeCell ref="C556:G556"/>
-    <mergeCell ref="C558:D558"/>
-    <mergeCell ref="E558:G558"/>
-    <mergeCell ref="C528:G528"/>
-    <mergeCell ref="C532:G532"/>
-    <mergeCell ref="C533:G533"/>
-    <mergeCell ref="C535:D535"/>
-    <mergeCell ref="E535:G535"/>
-    <mergeCell ref="C536:D536"/>
-    <mergeCell ref="E536:G536"/>
-    <mergeCell ref="C538:G538"/>
-    <mergeCell ref="F540:G540"/>
-    <mergeCell ref="C513:D513"/>
-    <mergeCell ref="E513:G513"/>
-    <mergeCell ref="C515:G515"/>
-    <mergeCell ref="F517:G517"/>
-    <mergeCell ref="F518:G518"/>
-    <mergeCell ref="F519:G519"/>
-    <mergeCell ref="F520:G520"/>
-    <mergeCell ref="B523:G523"/>
-    <mergeCell ref="E525:G525"/>
-    <mergeCell ref="F495:G495"/>
-    <mergeCell ref="F496:G496"/>
-    <mergeCell ref="F497:G497"/>
-    <mergeCell ref="B500:G500"/>
-    <mergeCell ref="E502:G502"/>
-    <mergeCell ref="C505:G505"/>
-    <mergeCell ref="C509:G509"/>
-    <mergeCell ref="C510:G510"/>
-    <mergeCell ref="C512:D512"/>
-    <mergeCell ref="E512:G512"/>
-    <mergeCell ref="C482:G482"/>
-    <mergeCell ref="C486:G486"/>
-    <mergeCell ref="C487:G487"/>
-    <mergeCell ref="C489:D489"/>
-    <mergeCell ref="E489:G489"/>
-    <mergeCell ref="C490:D490"/>
-    <mergeCell ref="E490:G490"/>
-    <mergeCell ref="C492:G492"/>
-    <mergeCell ref="F494:G494"/>
-    <mergeCell ref="C467:D467"/>
-    <mergeCell ref="E467:G467"/>
-    <mergeCell ref="C469:G469"/>
-    <mergeCell ref="F471:G471"/>
-    <mergeCell ref="F472:G472"/>
-    <mergeCell ref="F473:G473"/>
-    <mergeCell ref="F474:G474"/>
-    <mergeCell ref="B477:G477"/>
-    <mergeCell ref="E479:G479"/>
-    <mergeCell ref="F449:G449"/>
-    <mergeCell ref="B452:G452"/>
-    <mergeCell ref="B454:G454"/>
-    <mergeCell ref="E456:G456"/>
-    <mergeCell ref="C459:G459"/>
-    <mergeCell ref="C463:G463"/>
-    <mergeCell ref="C464:G464"/>
-    <mergeCell ref="C466:D466"/>
-    <mergeCell ref="E466:G466"/>
-    <mergeCell ref="C439:G439"/>
-    <mergeCell ref="C441:D441"/>
-    <mergeCell ref="E441:G441"/>
-    <mergeCell ref="C442:D442"/>
-    <mergeCell ref="E442:G442"/>
-    <mergeCell ref="C444:G444"/>
-    <mergeCell ref="F446:G446"/>
-    <mergeCell ref="F447:G447"/>
-    <mergeCell ref="F448:G448"/>
-    <mergeCell ref="C421:G421"/>
-    <mergeCell ref="F423:G423"/>
-    <mergeCell ref="F424:G424"/>
-    <mergeCell ref="F425:G425"/>
-    <mergeCell ref="F426:G426"/>
-    <mergeCell ref="B429:G429"/>
-    <mergeCell ref="E431:G431"/>
-    <mergeCell ref="C434:G434"/>
-    <mergeCell ref="C438:G438"/>
-    <mergeCell ref="B406:G406"/>
-    <mergeCell ref="E408:G408"/>
-    <mergeCell ref="C411:G411"/>
-    <mergeCell ref="C415:G415"/>
-    <mergeCell ref="C416:G416"/>
-    <mergeCell ref="C418:D418"/>
-    <mergeCell ref="E418:G418"/>
-    <mergeCell ref="C419:D419"/>
-    <mergeCell ref="E419:G419"/>
+  <mergeCells count="463">
+    <mergeCell ref="E682:G682"/>
+    <mergeCell ref="C683:D683"/>
+    <mergeCell ref="E683:G683"/>
+    <mergeCell ref="C685:G685"/>
+    <mergeCell ref="F687:G687"/>
+    <mergeCell ref="F688:G688"/>
+    <mergeCell ref="F689:G689"/>
+    <mergeCell ref="B672:B674"/>
+    <mergeCell ref="B675:B677"/>
+    <mergeCell ref="C675:D675"/>
+    <mergeCell ref="E675:G675"/>
+    <mergeCell ref="C676:D676"/>
+    <mergeCell ref="E676:G676"/>
+    <mergeCell ref="C677:D677"/>
+    <mergeCell ref="E677:G677"/>
+    <mergeCell ref="B678:B680"/>
+    <mergeCell ref="C678:D678"/>
+    <mergeCell ref="E678:G678"/>
+    <mergeCell ref="C679:D679"/>
+    <mergeCell ref="E679:G679"/>
+    <mergeCell ref="C680:D680"/>
+    <mergeCell ref="E680:G680"/>
+    <mergeCell ref="B681:B683"/>
+    <mergeCell ref="C681:D681"/>
+    <mergeCell ref="E681:G681"/>
+    <mergeCell ref="C682:D682"/>
+    <mergeCell ref="C671:D671"/>
+    <mergeCell ref="E671:G671"/>
+    <mergeCell ref="C672:D672"/>
+    <mergeCell ref="E672:G672"/>
+    <mergeCell ref="C673:D673"/>
+    <mergeCell ref="E673:G673"/>
+    <mergeCell ref="C674:D674"/>
+    <mergeCell ref="E674:G674"/>
+    <mergeCell ref="F654:G654"/>
+    <mergeCell ref="B642:B647"/>
+    <mergeCell ref="B614:B619"/>
+    <mergeCell ref="B657:G657"/>
+    <mergeCell ref="B659:G659"/>
+    <mergeCell ref="E661:G661"/>
+    <mergeCell ref="C664:G664"/>
+    <mergeCell ref="C668:G668"/>
+    <mergeCell ref="C669:G669"/>
+    <mergeCell ref="C646:D646"/>
+    <mergeCell ref="E646:G646"/>
+    <mergeCell ref="C647:D647"/>
+    <mergeCell ref="E647:G647"/>
+    <mergeCell ref="C649:G649"/>
+    <mergeCell ref="F651:G651"/>
+    <mergeCell ref="F652:G652"/>
+    <mergeCell ref="F653:G653"/>
+    <mergeCell ref="C639:G639"/>
+    <mergeCell ref="C641:D641"/>
+    <mergeCell ref="E641:G641"/>
+    <mergeCell ref="C642:D642"/>
+    <mergeCell ref="E642:G642"/>
+    <mergeCell ref="C643:D643"/>
+    <mergeCell ref="E643:G643"/>
+    <mergeCell ref="C644:D644"/>
+    <mergeCell ref="E644:G644"/>
+    <mergeCell ref="C645:D645"/>
+    <mergeCell ref="E645:G645"/>
+    <mergeCell ref="C621:G621"/>
+    <mergeCell ref="F623:G623"/>
+    <mergeCell ref="F624:G624"/>
+    <mergeCell ref="F625:G625"/>
+    <mergeCell ref="F626:G626"/>
+    <mergeCell ref="B629:G629"/>
+    <mergeCell ref="E631:G631"/>
+    <mergeCell ref="C634:G634"/>
+    <mergeCell ref="C638:G638"/>
+    <mergeCell ref="C616:D616"/>
+    <mergeCell ref="E616:G616"/>
+    <mergeCell ref="C617:D617"/>
+    <mergeCell ref="E617:G617"/>
+    <mergeCell ref="C618:D618"/>
+    <mergeCell ref="E618:G618"/>
+    <mergeCell ref="C619:D619"/>
+    <mergeCell ref="E619:G619"/>
+    <mergeCell ref="B599:G599"/>
+    <mergeCell ref="B601:G601"/>
+    <mergeCell ref="E603:G603"/>
+    <mergeCell ref="C606:G606"/>
+    <mergeCell ref="C610:G610"/>
+    <mergeCell ref="C611:G611"/>
+    <mergeCell ref="C613:D613"/>
+    <mergeCell ref="E613:G613"/>
+    <mergeCell ref="C614:D614"/>
+    <mergeCell ref="E614:G614"/>
+    <mergeCell ref="C615:D615"/>
+    <mergeCell ref="E615:G615"/>
+    <mergeCell ref="F261:G261"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="E254:G254"/>
+    <mergeCell ref="C256:G256"/>
+    <mergeCell ref="F258:G258"/>
+    <mergeCell ref="F259:G259"/>
+    <mergeCell ref="F260:G260"/>
+    <mergeCell ref="E243:G243"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C251:G251"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="E253:G253"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="F235:G235"/>
+    <mergeCell ref="F236:G236"/>
+    <mergeCell ref="F237:G237"/>
+    <mergeCell ref="F238:G238"/>
+    <mergeCell ref="B241:G241"/>
+    <mergeCell ref="C223:G223"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="C228:G228"/>
+    <mergeCell ref="C230:D230"/>
+    <mergeCell ref="E230:G230"/>
+    <mergeCell ref="C231:D231"/>
+    <mergeCell ref="E231:G231"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="F213:G213"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="F215:G215"/>
+    <mergeCell ref="B218:G218"/>
+    <mergeCell ref="E220:G220"/>
+    <mergeCell ref="C205:G205"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:G207"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:G208"/>
+    <mergeCell ref="C210:G210"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="B193:G193"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="E197:G197"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="C204:G204"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:G183"/>
+    <mergeCell ref="C185:G185"/>
+    <mergeCell ref="F187:G187"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="F189:G189"/>
+    <mergeCell ref="E172:G172"/>
+    <mergeCell ref="C175:G175"/>
+    <mergeCell ref="C179:G179"/>
+    <mergeCell ref="C180:G180"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:G182"/>
+    <mergeCell ref="C162:G162"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="F165:G165"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="F167:G167"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C156:G156"/>
+    <mergeCell ref="C157:G157"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:G159"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:G160"/>
+    <mergeCell ref="F141:G141"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="B147:G147"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:G136"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:G137"/>
+    <mergeCell ref="C139:G139"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="E126:G126"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="E112:G112"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="E111:G111"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B264:G264"/>
+    <mergeCell ref="B266:G266"/>
+    <mergeCell ref="E268:G268"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C271:G271"/>
+    <mergeCell ref="C275:G275"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="C278:D278"/>
+    <mergeCell ref="E278:G278"/>
+    <mergeCell ref="C279:D279"/>
+    <mergeCell ref="E279:G279"/>
+    <mergeCell ref="C281:G281"/>
+    <mergeCell ref="F283:G283"/>
+    <mergeCell ref="F284:G284"/>
+    <mergeCell ref="F285:G285"/>
+    <mergeCell ref="F286:G286"/>
+    <mergeCell ref="B289:G289"/>
+    <mergeCell ref="E291:G291"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="C298:G298"/>
+    <mergeCell ref="C299:G299"/>
+    <mergeCell ref="C301:D301"/>
+    <mergeCell ref="E301:G301"/>
+    <mergeCell ref="C302:D302"/>
+    <mergeCell ref="E302:G302"/>
+    <mergeCell ref="C304:G304"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F309:G309"/>
+    <mergeCell ref="B312:G312"/>
+    <mergeCell ref="E314:G314"/>
+    <mergeCell ref="F354:G354"/>
+    <mergeCell ref="F355:G355"/>
+    <mergeCell ref="F330:G330"/>
+    <mergeCell ref="F331:G331"/>
+    <mergeCell ref="F332:G332"/>
+    <mergeCell ref="B335:G335"/>
+    <mergeCell ref="C317:G317"/>
+    <mergeCell ref="C321:G321"/>
+    <mergeCell ref="C322:G322"/>
+    <mergeCell ref="C324:D324"/>
+    <mergeCell ref="E324:G324"/>
+    <mergeCell ref="C325:D325"/>
+    <mergeCell ref="E325:G325"/>
+    <mergeCell ref="C327:G327"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="F378:G378"/>
+    <mergeCell ref="F379:G379"/>
+    <mergeCell ref="F380:G380"/>
+    <mergeCell ref="B383:G383"/>
+    <mergeCell ref="E385:G385"/>
+    <mergeCell ref="C388:G388"/>
+    <mergeCell ref="C392:G392"/>
+    <mergeCell ref="B360:G360"/>
+    <mergeCell ref="E362:G362"/>
+    <mergeCell ref="C365:G365"/>
+    <mergeCell ref="C369:G369"/>
+    <mergeCell ref="C370:G370"/>
+    <mergeCell ref="C372:D372"/>
+    <mergeCell ref="E372:G372"/>
+    <mergeCell ref="C373:D373"/>
+    <mergeCell ref="E373:G373"/>
     <mergeCell ref="F403:G403"/>
     <mergeCell ref="E337:G337"/>
     <mergeCell ref="C340:G340"/>
@@ -7030,227 +8295,133 @@
     <mergeCell ref="F402:G402"/>
     <mergeCell ref="C375:G375"/>
     <mergeCell ref="F377:G377"/>
-    <mergeCell ref="F378:G378"/>
-    <mergeCell ref="F379:G379"/>
-    <mergeCell ref="F380:G380"/>
-    <mergeCell ref="B383:G383"/>
-    <mergeCell ref="E385:G385"/>
-    <mergeCell ref="C388:G388"/>
-    <mergeCell ref="C392:G392"/>
-    <mergeCell ref="B360:G360"/>
-    <mergeCell ref="E362:G362"/>
-    <mergeCell ref="C365:G365"/>
-    <mergeCell ref="C369:G369"/>
-    <mergeCell ref="C370:G370"/>
-    <mergeCell ref="C372:D372"/>
-    <mergeCell ref="E372:G372"/>
-    <mergeCell ref="C373:D373"/>
-    <mergeCell ref="E373:G373"/>
-    <mergeCell ref="F354:G354"/>
-    <mergeCell ref="F355:G355"/>
-    <mergeCell ref="F330:G330"/>
-    <mergeCell ref="F331:G331"/>
-    <mergeCell ref="F332:G332"/>
-    <mergeCell ref="B335:G335"/>
-    <mergeCell ref="C317:G317"/>
-    <mergeCell ref="C321:G321"/>
-    <mergeCell ref="C322:G322"/>
-    <mergeCell ref="C324:D324"/>
-    <mergeCell ref="E324:G324"/>
-    <mergeCell ref="C325:D325"/>
-    <mergeCell ref="E325:G325"/>
-    <mergeCell ref="C327:G327"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="C302:D302"/>
-    <mergeCell ref="E302:G302"/>
-    <mergeCell ref="C304:G304"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F309:G309"/>
-    <mergeCell ref="B312:G312"/>
-    <mergeCell ref="E314:G314"/>
-    <mergeCell ref="F284:G284"/>
-    <mergeCell ref="F285:G285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="B289:G289"/>
-    <mergeCell ref="E291:G291"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="C298:G298"/>
-    <mergeCell ref="C299:G299"/>
-    <mergeCell ref="C301:D301"/>
-    <mergeCell ref="E301:G301"/>
-    <mergeCell ref="C271:G271"/>
-    <mergeCell ref="C275:G275"/>
-    <mergeCell ref="C276:G276"/>
-    <mergeCell ref="C278:D278"/>
-    <mergeCell ref="E278:G278"/>
-    <mergeCell ref="C279:D279"/>
-    <mergeCell ref="E279:G279"/>
-    <mergeCell ref="C281:G281"/>
-    <mergeCell ref="F283:G283"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B264:G264"/>
-    <mergeCell ref="B266:G266"/>
-    <mergeCell ref="E268:G268"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="E112:G112"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="E111:G111"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:G136"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:G137"/>
-    <mergeCell ref="C139:G139"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="E126:G126"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C156:G156"/>
-    <mergeCell ref="C157:G157"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:G159"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:G160"/>
-    <mergeCell ref="F141:G141"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="B147:G147"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="E172:G172"/>
-    <mergeCell ref="C175:G175"/>
-    <mergeCell ref="C179:G179"/>
-    <mergeCell ref="C180:G180"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:G182"/>
-    <mergeCell ref="C162:G162"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="F165:G165"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="F167:G167"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="B193:G193"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="E197:G197"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="C204:G204"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:G183"/>
-    <mergeCell ref="C185:G185"/>
-    <mergeCell ref="F187:G187"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="F189:G189"/>
-    <mergeCell ref="F212:G212"/>
-    <mergeCell ref="F213:G213"/>
-    <mergeCell ref="F214:G214"/>
-    <mergeCell ref="F215:G215"/>
-    <mergeCell ref="B218:G218"/>
-    <mergeCell ref="E220:G220"/>
-    <mergeCell ref="C205:G205"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:G207"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:G208"/>
-    <mergeCell ref="C210:G210"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="F235:G235"/>
-    <mergeCell ref="F236:G236"/>
-    <mergeCell ref="F237:G237"/>
-    <mergeCell ref="F238:G238"/>
-    <mergeCell ref="B241:G241"/>
-    <mergeCell ref="C223:G223"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="C228:G228"/>
-    <mergeCell ref="C230:D230"/>
-    <mergeCell ref="E230:G230"/>
-    <mergeCell ref="C231:D231"/>
-    <mergeCell ref="E231:G231"/>
-    <mergeCell ref="F261:G261"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="E254:G254"/>
-    <mergeCell ref="C256:G256"/>
-    <mergeCell ref="F258:G258"/>
-    <mergeCell ref="F259:G259"/>
-    <mergeCell ref="F260:G260"/>
-    <mergeCell ref="E243:G243"/>
-    <mergeCell ref="C246:G246"/>
-    <mergeCell ref="C250:G250"/>
-    <mergeCell ref="C251:G251"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="E253:G253"/>
+    <mergeCell ref="B406:G406"/>
+    <mergeCell ref="E408:G408"/>
+    <mergeCell ref="C411:G411"/>
+    <mergeCell ref="C415:G415"/>
+    <mergeCell ref="C416:G416"/>
+    <mergeCell ref="C418:D418"/>
+    <mergeCell ref="E418:G418"/>
+    <mergeCell ref="C419:D419"/>
+    <mergeCell ref="E419:G419"/>
+    <mergeCell ref="C421:G421"/>
+    <mergeCell ref="F423:G423"/>
+    <mergeCell ref="F424:G424"/>
+    <mergeCell ref="F425:G425"/>
+    <mergeCell ref="F426:G426"/>
+    <mergeCell ref="B429:G429"/>
+    <mergeCell ref="E431:G431"/>
+    <mergeCell ref="C434:G434"/>
+    <mergeCell ref="C438:G438"/>
+    <mergeCell ref="C439:G439"/>
+    <mergeCell ref="C441:D441"/>
+    <mergeCell ref="E441:G441"/>
+    <mergeCell ref="C442:D442"/>
+    <mergeCell ref="E442:G442"/>
+    <mergeCell ref="C444:G444"/>
+    <mergeCell ref="F446:G446"/>
+    <mergeCell ref="F447:G447"/>
+    <mergeCell ref="F448:G448"/>
+    <mergeCell ref="F449:G449"/>
+    <mergeCell ref="B452:G452"/>
+    <mergeCell ref="B454:G454"/>
+    <mergeCell ref="E456:G456"/>
+    <mergeCell ref="C459:G459"/>
+    <mergeCell ref="C463:G463"/>
+    <mergeCell ref="C464:G464"/>
+    <mergeCell ref="C466:D466"/>
+    <mergeCell ref="E466:G466"/>
+    <mergeCell ref="C467:D467"/>
+    <mergeCell ref="E467:G467"/>
+    <mergeCell ref="C469:G469"/>
+    <mergeCell ref="F471:G471"/>
+    <mergeCell ref="F472:G472"/>
+    <mergeCell ref="F473:G473"/>
+    <mergeCell ref="F474:G474"/>
+    <mergeCell ref="B477:G477"/>
+    <mergeCell ref="E479:G479"/>
+    <mergeCell ref="C482:G482"/>
+    <mergeCell ref="C486:G486"/>
+    <mergeCell ref="C487:G487"/>
+    <mergeCell ref="C489:D489"/>
+    <mergeCell ref="E489:G489"/>
+    <mergeCell ref="C490:D490"/>
+    <mergeCell ref="E490:G490"/>
+    <mergeCell ref="C492:G492"/>
+    <mergeCell ref="F494:G494"/>
+    <mergeCell ref="F495:G495"/>
+    <mergeCell ref="F496:G496"/>
+    <mergeCell ref="F497:G497"/>
+    <mergeCell ref="B500:G500"/>
+    <mergeCell ref="E502:G502"/>
+    <mergeCell ref="C505:G505"/>
+    <mergeCell ref="C509:G509"/>
+    <mergeCell ref="C510:G510"/>
+    <mergeCell ref="C512:D512"/>
+    <mergeCell ref="E512:G512"/>
+    <mergeCell ref="C513:D513"/>
+    <mergeCell ref="E513:G513"/>
+    <mergeCell ref="C515:G515"/>
+    <mergeCell ref="F517:G517"/>
+    <mergeCell ref="F518:G518"/>
+    <mergeCell ref="F519:G519"/>
+    <mergeCell ref="F520:G520"/>
+    <mergeCell ref="B523:G523"/>
+    <mergeCell ref="E525:G525"/>
+    <mergeCell ref="C528:G528"/>
+    <mergeCell ref="C532:G532"/>
+    <mergeCell ref="C533:G533"/>
+    <mergeCell ref="C535:D535"/>
+    <mergeCell ref="E535:G535"/>
+    <mergeCell ref="C536:D536"/>
+    <mergeCell ref="E536:G536"/>
+    <mergeCell ref="C538:G538"/>
+    <mergeCell ref="F540:G540"/>
+    <mergeCell ref="F541:G541"/>
+    <mergeCell ref="F542:G542"/>
+    <mergeCell ref="F543:G543"/>
+    <mergeCell ref="B546:G546"/>
+    <mergeCell ref="E548:G548"/>
+    <mergeCell ref="C551:G551"/>
+    <mergeCell ref="C555:G555"/>
+    <mergeCell ref="C556:G556"/>
+    <mergeCell ref="C558:D558"/>
+    <mergeCell ref="E558:G558"/>
+    <mergeCell ref="C559:D559"/>
+    <mergeCell ref="E559:G559"/>
+    <mergeCell ref="C561:G561"/>
+    <mergeCell ref="F563:G563"/>
+    <mergeCell ref="F564:G564"/>
+    <mergeCell ref="F565:G565"/>
+    <mergeCell ref="F566:G566"/>
+    <mergeCell ref="B569:G569"/>
+    <mergeCell ref="B571:G571"/>
+    <mergeCell ref="E573:G573"/>
+    <mergeCell ref="C576:G576"/>
+    <mergeCell ref="C580:G580"/>
+    <mergeCell ref="C581:G581"/>
+    <mergeCell ref="C583:D583"/>
+    <mergeCell ref="E583:G583"/>
+    <mergeCell ref="C584:D584"/>
+    <mergeCell ref="E584:G584"/>
+    <mergeCell ref="C591:G591"/>
+    <mergeCell ref="E588:G588"/>
+    <mergeCell ref="C588:D588"/>
+    <mergeCell ref="F593:G593"/>
+    <mergeCell ref="F594:G594"/>
+    <mergeCell ref="F595:G595"/>
+    <mergeCell ref="F596:G596"/>
+    <mergeCell ref="E585:G585"/>
+    <mergeCell ref="C585:D585"/>
+    <mergeCell ref="B584:B585"/>
+    <mergeCell ref="B586:B587"/>
+    <mergeCell ref="C586:D586"/>
+    <mergeCell ref="E586:G586"/>
+    <mergeCell ref="C587:D587"/>
+    <mergeCell ref="E587:G587"/>
+    <mergeCell ref="B588:B589"/>
+    <mergeCell ref="C589:D589"/>
+    <mergeCell ref="E589:G589"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
